--- a/apgar1healthy.xlsx
+++ b/apgar1healthy.xlsx
@@ -476,22 +476,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.151511535297974)</t>
+          <t>ReturnTuple(sdnn=24.08410862002917)</t>
         </is>
       </c>
     </row>
@@ -506,22 +506,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.21615385507634)</t>
+          <t>ReturnTuple(sdnn=22.097714871858216)</t>
         </is>
       </c>
     </row>
@@ -536,22 +536,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.888796067991317)</t>
+          <t>ReturnTuple(sdnn=14.880010865923875)</t>
         </is>
       </c>
     </row>
@@ -566,22 +566,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.151290463333712)</t>
+          <t>ReturnTuple(sdnn=22.226580923603613)</t>
         </is>
       </c>
     </row>
@@ -596,22 +596,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.719983988141312)</t>
+          <t>ReturnTuple(sdnn=23.391346970766868)</t>
         </is>
       </c>
     </row>
@@ -626,22 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.709538943011417)</t>
+          <t>ReturnTuple(sdnn=20.641889603195118)</t>
         </is>
       </c>
     </row>
@@ -656,22 +656,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.483616700418551)</t>
+          <t>ReturnTuple(sdnn=14.403251376805768)</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.34506888655761)</t>
+          <t>ReturnTuple(sdnn=23.11654462066984)</t>
         </is>
       </c>
     </row>
@@ -716,22 +716,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.369916144317326)</t>
+          <t>ReturnTuple(sdnn=14.400691219266495)</t>
         </is>
       </c>
     </row>
@@ -746,22 +746,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.635506508172725)</t>
+          <t>ReturnTuple(sdnn=21.69897660526439)</t>
         </is>
       </c>
     </row>
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.415497916242423)</t>
+          <t>ReturnTuple(sdnn=24.42203909599926)</t>
         </is>
       </c>
     </row>
@@ -806,22 +806,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.476888455708238)</t>
+          <t>ReturnTuple(sdnn=18.481429895313855)</t>
         </is>
       </c>
     </row>
@@ -836,22 +836,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.817579368586593)</t>
+          <t>ReturnTuple(sdnn=18.64314005938282)</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.50156177961827)</t>
+          <t>ReturnTuple(sdnn=19.48468293936491)</t>
         </is>
       </c>
     </row>
@@ -896,22 +896,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.459853723013875)</t>
+          <t>ReturnTuple(sdnn=22.50738219762121)</t>
         </is>
       </c>
     </row>
@@ -926,22 +926,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.289668138664215)</t>
+          <t>ReturnTuple(sdnn=16.139801826199893)</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.746146506117455)</t>
+          <t>ReturnTuple(sdnn=25.76040819052499)</t>
         </is>
       </c>
     </row>
@@ -986,22 +986,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.335019339865823)</t>
+          <t>ReturnTuple(sdnn=18.95406842612953)</t>
         </is>
       </c>
     </row>
@@ -1016,22 +1016,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.83054584272273)</t>
+          <t>ReturnTuple(sdnn=22.648053602663623)</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1046,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.977240648734934)</t>
+          <t>ReturnTuple(sdnn=20.79194267403372)</t>
         </is>
       </c>
     </row>
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.315018349260544)</t>
+          <t>ReturnTuple(sdnn=27.303791031604497)</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.610307536197286)</t>
+          <t>ReturnTuple(sdnn=19.440094392724703)</t>
         </is>
       </c>
     </row>
@@ -1136,22 +1136,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816280480960813)</t>
+          <t>ReturnTuple(sdnn=17.6909106070813)</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.318952927708578)</t>
+          <t>ReturnTuple(sdnn=9.845623260990065)</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.021893567154358)</t>
+          <t>ReturnTuple(sdnn=12.518774061001515)</t>
         </is>
       </c>
     </row>
@@ -1226,22 +1226,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.760149591665233)</t>
+          <t>ReturnTuple(sdnn=22.692955194582183)</t>
         </is>
       </c>
     </row>
@@ -1256,22 +1256,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.419488214770308)</t>
+          <t>ReturnTuple(sdnn=18.733470485527892)</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.287548825637856)</t>
+          <t>ReturnTuple(sdnn=28.180966176439913)</t>
         </is>
       </c>
     </row>
@@ -1316,22 +1316,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.73381714507091)</t>
+          <t>ReturnTuple(sdnn=15.757427678275844)</t>
         </is>
       </c>
     </row>
@@ -1346,22 +1346,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.457829189652353)</t>
+          <t>ReturnTuple(sdnn=15.305090047234918)</t>
         </is>
       </c>
     </row>
@@ -1376,22 +1376,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.241110721638513)</t>
+          <t>ReturnTuple(sdnn=18.99657816225741)</t>
         </is>
       </c>
     </row>
@@ -1406,22 +1406,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.318938534863866)</t>
+          <t>ReturnTuple(sdnn=9.304781829563343)</t>
         </is>
       </c>
     </row>
@@ -1436,22 +1436,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.743873869629155)</t>
+          <t>ReturnTuple(sdnn=17.347759574349126)</t>
         </is>
       </c>
     </row>
@@ -1466,22 +1466,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.38717052557374)</t>
+          <t>ReturnTuple(sdnn=15.370840088742042)</t>
         </is>
       </c>
     </row>
@@ -1496,22 +1496,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362070615496563)</t>
+          <t>ReturnTuple(sdnn=12.314408281608085)</t>
         </is>
       </c>
     </row>
@@ -1526,22 +1526,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.236405050567317)</t>
+          <t>ReturnTuple(sdnn=14.087297034869923)</t>
         </is>
       </c>
     </row>
@@ -1586,22 +1586,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.60395772730935)</t>
+          <t>ReturnTuple(sdnn=24.36972366225153)</t>
         </is>
       </c>
     </row>
@@ -1616,22 +1616,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.893383844655474)</t>
+          <t>ReturnTuple(sdnn=10.542213966329165)</t>
         </is>
       </c>
     </row>
@@ -1646,22 +1646,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.815362305876828)</t>
+          <t>ReturnTuple(sdnn=13.634101497356022)</t>
         </is>
       </c>
     </row>
@@ -1676,22 +1676,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.24260031729046)</t>
+          <t>ReturnTuple(sdnn=9.249761615133682)</t>
         </is>
       </c>
     </row>
@@ -1706,22 +1706,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.45996814361741)</t>
+          <t>ReturnTuple(sdnn=22.506718299949853)</t>
         </is>
       </c>
     </row>
@@ -1736,22 +1736,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.291933468770122)</t>
+          <t>ReturnTuple(sdnn=12.188171146992373)</t>
         </is>
       </c>
     </row>
@@ -1766,22 +1766,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.627701420683248)</t>
+          <t>ReturnTuple(sdnn=14.421696974683169)</t>
         </is>
       </c>
     </row>
@@ -1796,22 +1796,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.221375655402323)</t>
+          <t>ReturnTuple(sdnn=20.007814445012215)</t>
         </is>
       </c>
     </row>
@@ -1826,22 +1826,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.01203666436675)</t>
+          <t>ReturnTuple(sdnn=15.733937998808893)</t>
         </is>
       </c>
     </row>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.0272430360708)</t>
+          <t>ReturnTuple(sdnn=20.026887019213078)</t>
         </is>
       </c>
     </row>
@@ -1886,22 +1886,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.061208507900757)</t>
+          <t>ReturnTuple(sdnn=14.058399056193023)</t>
         </is>
       </c>
     </row>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.25071797913665)</t>
+          <t>ReturnTuple(sdnn=18.448211435487327)</t>
         </is>
       </c>
     </row>
@@ -1946,22 +1946,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.613511199599472)</t>
+          <t>ReturnTuple(sdnn=26.38062450185551)</t>
         </is>
       </c>
     </row>
@@ -1976,22 +1976,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.525256993804295)</t>
+          <t>ReturnTuple(sdnn=16.93655630140435)</t>
         </is>
       </c>
     </row>
@@ -2006,22 +2006,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.601872076040674)</t>
+          <t>ReturnTuple(sdnn=16.1563999197536)</t>
         </is>
       </c>
     </row>
@@ -2036,22 +2036,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.47260827356023)</t>
+          <t>ReturnTuple(sdnn=16.10236611427594)</t>
         </is>
       </c>
     </row>
@@ -2066,22 +2066,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.413845210494745)</t>
+          <t>ReturnTuple(sdnn=28.212030323476004)</t>
         </is>
       </c>
     </row>
@@ -2096,22 +2096,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.194149157639558)</t>
+          <t>ReturnTuple(sdnn=27.79700256845402)</t>
         </is>
       </c>
     </row>
@@ -2126,22 +2126,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.700909239594846)</t>
+          <t>ReturnTuple(sdnn=10.443456776105297)</t>
         </is>
       </c>
     </row>
@@ -2156,22 +2156,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.682169101428432)</t>
+          <t>ReturnTuple(sdnn=13.706895705954155)</t>
         </is>
       </c>
     </row>
@@ -2186,22 +2186,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.129423776459102)</t>
+          <t>ReturnTuple(sdnn=17.084378285864958)</t>
         </is>
       </c>
     </row>
@@ -2216,22 +2216,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.750396432863083)</t>
+          <t>ReturnTuple(sdnn=8.778646960092408)</t>
         </is>
       </c>
     </row>
@@ -2246,22 +2246,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.251295295914279)</t>
+          <t>ReturnTuple(sdnn=14.252452506781696)</t>
         </is>
       </c>
     </row>
@@ -2276,22 +2276,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.452144999083252)</t>
+          <t>ReturnTuple(sdnn=12.254275116053112)</t>
         </is>
       </c>
     </row>
@@ -2306,22 +2306,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.591318903569796)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
     </row>
@@ -2336,22 +2336,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.34367333080929)</t>
+          <t>ReturnTuple(sdnn=16.436735394469807)</t>
         </is>
       </c>
     </row>
@@ -2366,22 +2366,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.521325773903989)</t>
+          <t>ReturnTuple(sdnn=14.514512207201056)</t>
         </is>
       </c>
     </row>
@@ -2396,22 +2396,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.416682538070557)</t>
+          <t>ReturnTuple(sdnn=22.356729808056844)</t>
         </is>
       </c>
     </row>
@@ -2426,22 +2426,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.05672825724846)</t>
+          <t>ReturnTuple(sdnn=16.068655061578795)</t>
         </is>
       </c>
     </row>
@@ -2456,22 +2456,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.082884260321286)</t>
+          <t>ReturnTuple(sdnn=8.378730112258193)</t>
         </is>
       </c>
     </row>
@@ -2486,22 +2486,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.816264196586978)</t>
+          <t>ReturnTuple(sdnn=17.53236237750666)</t>
         </is>
       </c>
     </row>
@@ -2516,22 +2516,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.397382511927876)</t>
+          <t>ReturnTuple(sdnn=16.060820611777096)</t>
         </is>
       </c>
     </row>
@@ -2546,22 +2546,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.348900530359632)</t>
+          <t>ReturnTuple(sdnn=23.206754169153196)</t>
         </is>
       </c>
     </row>
@@ -2576,22 +2576,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.797759460096566)</t>
+          <t>ReturnTuple(sdnn=14.358529721283706)</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2606,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.064530042873997)</t>
+          <t>ReturnTuple(sdnn=15.943115803553207)</t>
         </is>
       </c>
     </row>
@@ -2636,22 +2636,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.604332591209966)</t>
+          <t>ReturnTuple(sdnn=14.613835376202113)</t>
         </is>
       </c>
     </row>
@@ -2666,22 +2666,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.241185835985737)</t>
+          <t>ReturnTuple(sdnn=6.254390107890609)</t>
         </is>
       </c>
     </row>
@@ -2696,22 +2696,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.841185485952229)</t>
+          <t>ReturnTuple(sdnn=15.876925386017916)</t>
         </is>
       </c>
     </row>
@@ -2726,22 +2726,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.381292695281415)</t>
+          <t>ReturnTuple(sdnn=13.409107745785303)</t>
         </is>
       </c>
     </row>
@@ -2756,22 +2756,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.714824835610997)</t>
+          <t>ReturnTuple(sdnn=17.751653363968355)</t>
         </is>
       </c>
     </row>
@@ -2786,22 +2786,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.426430976357423)</t>
+          <t>ReturnTuple(sdnn=17.92078853942775)</t>
         </is>
       </c>
     </row>
@@ -2816,22 +2816,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.65654608641924)</t>
+          <t>ReturnTuple(sdnn=20.207622810760522)</t>
         </is>
       </c>
     </row>
@@ -2846,22 +2846,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.70323859613028)</t>
+          <t>ReturnTuple(sdnn=10.63049893589106)</t>
         </is>
       </c>
     </row>
@@ -2876,22 +2876,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.791846478573326)</t>
+          <t>ReturnTuple(sdnn=24.790137803261384)</t>
         </is>
       </c>
     </row>
@@ -2906,22 +2906,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.081292947352729)</t>
+          <t>ReturnTuple(sdnn=12.088926113605936)</t>
         </is>
       </c>
     </row>
@@ -2936,22 +2936,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.795019524645367)</t>
+          <t>ReturnTuple(sdnn=12.747988378415592)</t>
         </is>
       </c>
     </row>
@@ -2966,22 +2966,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.56246839195853)</t>
+          <t>ReturnTuple(sdnn=16.512262145006545)</t>
         </is>
       </c>
     </row>
@@ -2996,22 +2996,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.89952104601569)</t>
+          <t>ReturnTuple(sdnn=19.70887871797213)</t>
         </is>
       </c>
     </row>
@@ -3026,22 +3026,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.493301743242327)</t>
+          <t>ReturnTuple(sdnn=22.46542684210434)</t>
         </is>
       </c>
     </row>
@@ -3056,22 +3056,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.014861478591914)</t>
+          <t>ReturnTuple(sdnn=19.105742642636198)</t>
         </is>
       </c>
     </row>
@@ -3086,22 +3086,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984217083036004)</t>
+          <t>ReturnTuple(sdnn=12.742075730529475)</t>
         </is>
       </c>
     </row>
@@ -3116,22 +3116,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.311137234418906)</t>
+          <t>ReturnTuple(sdnn=14.366671209861865)</t>
         </is>
       </c>
     </row>
@@ -3146,22 +3146,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.756521701910257)</t>
+          <t>ReturnTuple(sdnn=15.582519393645741)</t>
         </is>
       </c>
     </row>
@@ -3176,22 +3176,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.124880035216751)</t>
+          <t>ReturnTuple(sdnn=13.056527631431115)</t>
         </is>
       </c>
     </row>
@@ -3206,22 +3206,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.757563849648843)</t>
+          <t>ReturnTuple(sdnn=12.630414808800865)</t>
         </is>
       </c>
     </row>
@@ -3236,22 +3236,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.461616128379433)</t>
+          <t>ReturnTuple(sdnn=21.33276797600235)</t>
         </is>
       </c>
     </row>
@@ -3266,22 +3266,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.596309341089594)</t>
+          <t>ReturnTuple(sdnn=22.392646601272567)</t>
         </is>
       </c>
     </row>
@@ -3296,22 +3296,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.286018280616698)</t>
+          <t>ReturnTuple(sdnn=16.40831407747778)</t>
         </is>
       </c>
     </row>
@@ -3326,22 +3326,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.41161124367908)</t>
+          <t>ReturnTuple(sdnn=30.362442442066726)</t>
         </is>
       </c>
     </row>
@@ -3356,22 +3356,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.137800196203244)</t>
+          <t>ReturnTuple(sdnn=16.060388476168477)</t>
         </is>
       </c>
     </row>
@@ -3386,22 +3386,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.560337087593338)</t>
+          <t>ReturnTuple(sdnn=11.988561089257908)</t>
         </is>
       </c>
     </row>
@@ -3416,22 +3416,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.26779899682522)</t>
+          <t>ReturnTuple(sdnn=18.96775351651676)</t>
         </is>
       </c>
     </row>
@@ -3446,22 +3446,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.014380959761551)</t>
+          <t>ReturnTuple(sdnn=10.667604714500303)</t>
         </is>
       </c>
     </row>
@@ -3476,22 +3476,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.028653343282704)</t>
+          <t>ReturnTuple(sdnn=15.02763124811553)</t>
         </is>
       </c>
     </row>
@@ -3506,22 +3506,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.939156606281543)</t>
+          <t>ReturnTuple(sdnn=18.407514494374634)</t>
         </is>
       </c>
     </row>
@@ -3536,22 +3536,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.218218438761717)</t>
+          <t>ReturnTuple(sdnn=24.08137171643107)</t>
         </is>
       </c>
     </row>
@@ -3566,22 +3566,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.304048148383195)</t>
+          <t>ReturnTuple(sdnn=16.034063473917588)</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.851770556425485)</t>
+          <t>ReturnTuple(sdnn=21.354760863534466)</t>
         </is>
       </c>
     </row>
@@ -3626,22 +3626,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.596338891362187)</t>
+          <t>ReturnTuple(sdnn=18.366198136402677)</t>
         </is>
       </c>
     </row>
@@ -3656,22 +3656,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.332458220431587)</t>
+          <t>ReturnTuple(sdnn=22.683424525433335)</t>
         </is>
       </c>
     </row>
@@ -3686,22 +3686,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.802702383795904)</t>
+          <t>ReturnTuple(sdnn=22.831555282620396)</t>
         </is>
       </c>
     </row>
@@ -3716,22 +3716,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.460532297527887)</t>
+          <t>ReturnTuple(sdnn=19.19447302271281)</t>
         </is>
       </c>
     </row>
@@ -3746,22 +3746,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.96182951591123)</t>
+          <t>ReturnTuple(sdnn=17.42322083154717)</t>
         </is>
       </c>
     </row>
@@ -3776,22 +3776,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.9401135089689)</t>
+          <t>ReturnTuple(sdnn=20.7968507975557)</t>
         </is>
       </c>
     </row>
@@ -3806,22 +3806,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.447738063316905)</t>
+          <t>ReturnTuple(sdnn=18.328829368853683)</t>
         </is>
       </c>
     </row>
@@ -3836,22 +3836,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.704919854699623)</t>
+          <t>ReturnTuple(sdnn=15.486337677631818)</t>
         </is>
       </c>
     </row>
@@ -3866,22 +3866,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.756692511846845)</t>
+          <t>ReturnTuple(sdnn=14.725398177036539)</t>
         </is>
       </c>
     </row>
@@ -3896,22 +3896,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.84821328487888)</t>
+          <t>ReturnTuple(sdnn=19.88826917503962)</t>
         </is>
       </c>
     </row>
@@ -3926,22 +3926,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.36194284029547)</t>
+          <t>ReturnTuple(sdnn=16.375376682062022)</t>
         </is>
       </c>
     </row>
@@ -3956,22 +3956,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.047586384280983)</t>
+          <t>ReturnTuple(sdnn=11.790131035694813)</t>
         </is>
       </c>
     </row>
@@ -3986,22 +3986,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.25061330381103)</t>
+          <t>ReturnTuple(sdnn=18.252130499301426)</t>
         </is>
       </c>
     </row>
@@ -4016,22 +4016,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.570244504515497)</t>
+          <t>ReturnTuple(sdnn=18.935048144901664)</t>
         </is>
       </c>
     </row>
@@ -4046,22 +4046,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.393103581982064)</t>
+          <t>ReturnTuple(sdnn=16.76914693351056)</t>
         </is>
       </c>
     </row>
@@ -4076,22 +4076,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.726050288521893)</t>
+          <t>ReturnTuple(sdnn=22.515613917559527)</t>
         </is>
       </c>
     </row>
@@ -4106,22 +4106,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.82052633637787)</t>
+          <t>ReturnTuple(sdnn=18.739610470700953)</t>
         </is>
       </c>
     </row>
@@ -4136,22 +4136,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.90018214245634)</t>
+          <t>ReturnTuple(sdnn=12.895954633193973)</t>
         </is>
       </c>
     </row>
@@ -4166,22 +4166,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.771941937308053)</t>
+          <t>ReturnTuple(sdnn=27.274917973410293)</t>
         </is>
       </c>
     </row>
@@ -4196,22 +4196,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.19713859226684)</t>
+          <t>ReturnTuple(sdnn=16.128732038812142)</t>
         </is>
       </c>
     </row>
@@ -4226,22 +4226,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.849813533674045)</t>
+          <t>ReturnTuple(sdnn=15.646258839415076)</t>
         </is>
       </c>
     </row>
@@ -4256,22 +4256,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.362144531801066)</t>
+          <t>ReturnTuple(sdnn=12.251348572114615)</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.132621888593203)</t>
+          <t>ReturnTuple(sdnn=18.110089699826066)</t>
         </is>
       </c>
     </row>
@@ -4316,22 +4316,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.886880433319554)</t>
+          <t>ReturnTuple(sdnn=16.801551634729403)</t>
         </is>
       </c>
     </row>
@@ -4346,22 +4346,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.27483620573325)</t>
+          <t>ReturnTuple(sdnn=23.169499796002743)</t>
         </is>
       </c>
     </row>
@@ -4376,22 +4376,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.210890495768394)</t>
+          <t>ReturnTuple(sdnn=12.025592893480209)</t>
         </is>
       </c>
     </row>
@@ -4406,22 +4406,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.07753609180421)</t>
+          <t>ReturnTuple(sdnn=17.864485963939103)</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.2871665688239)</t>
+          <t>ReturnTuple(sdnn=12.983913891300285)</t>
         </is>
       </c>
     </row>
@@ -4466,22 +4466,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.454100681123311)</t>
+          <t>ReturnTuple(sdnn=12.286471164405103)</t>
         </is>
       </c>
     </row>
@@ -4496,22 +4496,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.79359693885001)</t>
+          <t>ReturnTuple(sdnn=8.435397187241865)</t>
         </is>
       </c>
     </row>
@@ -4526,22 +4526,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.292908429551208)</t>
+          <t>ReturnTuple(sdnn=20.227257531322856)</t>
         </is>
       </c>
     </row>
@@ -4556,22 +4556,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.96098699315732)</t>
+          <t>ReturnTuple(sdnn=19.471865701633575)</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.385912043930636)</t>
+          <t>ReturnTuple(sdnn=9.393206510306234)</t>
         </is>
       </c>
     </row>
@@ -4616,22 +4616,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.019923431879826)</t>
+          <t>ReturnTuple(sdnn=14.851587082292689)</t>
         </is>
       </c>
     </row>
@@ -4646,22 +4646,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.79826980775987)</t>
+          <t>ReturnTuple(sdnn=19.736805421168658)</t>
         </is>
       </c>
     </row>
@@ -4676,22 +4676,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.749451048702298)</t>
+          <t>ReturnTuple(sdnn=21.672019624932744)</t>
         </is>
       </c>
     </row>
@@ -4706,22 +4706,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.2501442054154275)</t>
+          <t>ReturnTuple(sdnn=5.245764463182612)</t>
         </is>
       </c>
     </row>
@@ -4736,22 +4736,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69900535545959)</t>
+          <t>ReturnTuple(sdnn=21.623993380235632)</t>
         </is>
       </c>
     </row>
@@ -4766,22 +4766,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.513615172187503)</t>
+          <t>ReturnTuple(sdnn=20.300314718660058)</t>
         </is>
       </c>
     </row>
@@ -4796,22 +4796,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.2690653704673)</t>
+          <t>ReturnTuple(sdnn=15.05346200095526)</t>
         </is>
       </c>
     </row>
@@ -4826,22 +4826,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.45251708521612)</t>
+          <t>ReturnTuple(sdnn=13.93877479925858)</t>
         </is>
       </c>
     </row>
@@ -4856,22 +4856,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.478960454093357)</t>
+          <t>ReturnTuple(sdnn=18.146494919551333)</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.85074038857076)</t>
+          <t>ReturnTuple(sdnn=18.270463287173705)</t>
         </is>
       </c>
     </row>
@@ -4916,22 +4916,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.320607319889817)</t>
+          <t>ReturnTuple(sdnn=14.922767732850192)</t>
         </is>
       </c>
     </row>
@@ -4946,22 +4946,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.056064077117036)</t>
+          <t>ReturnTuple(sdnn=16.046276445026646)</t>
         </is>
       </c>
     </row>
@@ -4976,22 +4976,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.088073016295745)</t>
+          <t>ReturnTuple(sdnn=17.55176408108399)</t>
         </is>
       </c>
     </row>
@@ -5006,22 +5006,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.901716153068206)</t>
+          <t>ReturnTuple(sdnn=14.812081098587331)</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.058634153032566)</t>
+          <t>ReturnTuple(sdnn=12.54939604425609)</t>
         </is>
       </c>
     </row>
@@ -5066,22 +5066,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.082817796836817)</t>
+          <t>ReturnTuple(sdnn=22.631863405234213)</t>
         </is>
       </c>
     </row>
@@ -5096,22 +5096,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.026147622602155)</t>
+          <t>ReturnTuple(sdnn=13.931245083903075)</t>
         </is>
       </c>
     </row>
@@ -5126,22 +5126,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.601794046246305)</t>
+          <t>ReturnTuple(sdnn=18.16141535061375)</t>
         </is>
       </c>
     </row>
@@ -5156,22 +5156,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364203145567275)</t>
+          <t>ReturnTuple(sdnn=12.332588623575099)</t>
         </is>
       </c>
     </row>
@@ -5186,22 +5186,22 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.769896765431104)</t>
+          <t>ReturnTuple(sdnn=13.75395945318718)</t>
         </is>
       </c>
     </row>
@@ -5216,22 +5216,22 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.09764582449315)</t>
+          <t>ReturnTuple(sdnn=17.95324510027871)</t>
         </is>
       </c>
     </row>
@@ -5246,22 +5246,22 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.736766873986943)</t>
+          <t>ReturnTuple(sdnn=10.705806523794768)</t>
         </is>
       </c>
     </row>
@@ -5276,22 +5276,22 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.259381236073533)</t>
+          <t>ReturnTuple(sdnn=17.224109839499672)</t>
         </is>
       </c>
     </row>
@@ -5306,22 +5306,22 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.74597701290654)</t>
+          <t>ReturnTuple(sdnn=16.68102733980723)</t>
         </is>
       </c>
     </row>
@@ -5336,22 +5336,22 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.125926311626564)</t>
+          <t>ReturnTuple(sdnn=24.939383552260605)</t>
         </is>
       </c>
     </row>
@@ -5366,22 +5366,22 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.654746917229533)</t>
+          <t>ReturnTuple(sdnn=15.502238586207692)</t>
         </is>
       </c>
     </row>
@@ -5396,22 +5396,22 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.089924739723031)</t>
+          <t>ReturnTuple(sdnn=12.990593196360528)</t>
         </is>
       </c>
     </row>
@@ -5426,22 +5426,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.382288797550224)</t>
+          <t>ReturnTuple(sdnn=25.085277348328372)</t>
         </is>
       </c>
     </row>
@@ -5456,22 +5456,22 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.075551097478723)</t>
+          <t>ReturnTuple(sdnn=21.817074908827504)</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.39014127021635)</t>
+          <t>ReturnTuple(sdnn=21.32827707776698)</t>
         </is>
       </c>
     </row>
@@ -5516,22 +5516,22 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.861859142539513)</t>
+          <t>ReturnTuple(sdnn=11.448760440732348)</t>
         </is>
       </c>
     </row>
@@ -5546,22 +5546,22 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.481808104803296)</t>
+          <t>ReturnTuple(sdnn=22.009473777284136)</t>
         </is>
       </c>
     </row>
@@ -5576,22 +5576,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.017707942043684)</t>
+          <t>ReturnTuple(sdnn=12.984953861178811)</t>
         </is>
       </c>
     </row>
@@ -5606,22 +5606,22 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.502786210628257)</t>
+          <t>ReturnTuple(sdnn=13.359186499938707)</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.390793569553573)</t>
+          <t>ReturnTuple(sdnn=17.08099464628871)</t>
         </is>
       </c>
     </row>
@@ -5666,22 +5666,22 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.321497170794988)</t>
+          <t>ReturnTuple(sdnn=17.237375859665423)</t>
         </is>
       </c>
     </row>
@@ -5696,22 +5696,22 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.92947368677672)</t>
+          <t>ReturnTuple(sdnn=21.301212627364787)</t>
         </is>
       </c>
     </row>
@@ -5726,22 +5726,22 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.94627266945575)</t>
+          <t>ReturnTuple(sdnn=8.956140211314045)</t>
         </is>
       </c>
     </row>
@@ -5756,22 +5756,22 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.314018284339035)</t>
+          <t>ReturnTuple(sdnn=17.367023812701937)</t>
         </is>
       </c>
     </row>
@@ -5786,22 +5786,22 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.169002142028273)</t>
+          <t>ReturnTuple(sdnn=7.178635706409526)</t>
         </is>
       </c>
     </row>
@@ -5816,22 +5816,22 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.029311986229063)</t>
+          <t>ReturnTuple(sdnn=14.412857073861595)</t>
         </is>
       </c>
     </row>
@@ -5846,22 +5846,22 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.647246463766303)</t>
+          <t>ReturnTuple(sdnn=14.603376085968954)</t>
         </is>
       </c>
     </row>
@@ -5876,22 +5876,22 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.103504356022366)</t>
+          <t>ReturnTuple(sdnn=17.032552715357006)</t>
         </is>
       </c>
     </row>
@@ -5906,22 +5906,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.01230475708555)</t>
+          <t>ReturnTuple(sdnn=18.95834702606759)</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.162526612357391)</t>
+          <t>ReturnTuple(sdnn=15.023519151715782)</t>
         </is>
       </c>
     </row>
@@ -5966,22 +5966,22 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.408095665048403)</t>
+          <t>ReturnTuple(sdnn=17.32355684071665)</t>
         </is>
       </c>
     </row>
@@ -5996,22 +5996,22 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.67757099943388)</t>
+          <t>ReturnTuple(sdnn=11.051639526261217)</t>
         </is>
       </c>
     </row>
@@ -6026,22 +6026,22 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.235272564476581)</t>
+          <t>ReturnTuple(sdnn=15.023418147136757)</t>
         </is>
       </c>
     </row>
@@ -6056,22 +6056,22 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.580414187471343)</t>
+          <t>ReturnTuple(sdnn=15.229917044619071)</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.672544771430424)</t>
+          <t>ReturnTuple(sdnn=18.414080383878375)</t>
         </is>
       </c>
     </row>
@@ -6116,22 +6116,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.949779934470424)</t>
+          <t>ReturnTuple(sdnn=24.838560823833756)</t>
         </is>
       </c>
     </row>
@@ -6146,22 +6146,22 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.716746775324674)</t>
+          <t>ReturnTuple(sdnn=11.707074814997386)</t>
         </is>
       </c>
     </row>
@@ -6176,22 +6176,22 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.976768757922379)</t>
+          <t>ReturnTuple(sdnn=12.821856906082388)</t>
         </is>
       </c>
     </row>
@@ -6206,22 +6206,22 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.614544877301647)</t>
+          <t>ReturnTuple(sdnn=18.5364227343083)</t>
         </is>
       </c>
     </row>
@@ -6236,22 +6236,22 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.67143782049733)</t>
+          <t>ReturnTuple(sdnn=16.504075818005166)</t>
         </is>
       </c>
     </row>
@@ -6266,22 +6266,22 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.819884223053236)</t>
+          <t>ReturnTuple(sdnn=14.482342542259488)</t>
         </is>
       </c>
     </row>
@@ -6296,22 +6296,22 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.08362040515198)</t>
+          <t>ReturnTuple(sdnn=25.80754083558847)</t>
         </is>
       </c>
     </row>
@@ -6326,22 +6326,22 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.795231350409239)</t>
+          <t>ReturnTuple(sdnn=15.726260359700671)</t>
         </is>
       </c>
     </row>
@@ -6356,22 +6356,22 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.393725953310284)</t>
+          <t>ReturnTuple(sdnn=26.265446648308107)</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.87902158916713)</t>
+          <t>ReturnTuple(sdnn=21.948174389733826)</t>
         </is>
       </c>
     </row>
@@ -6416,22 +6416,22 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.614840269652776)</t>
+          <t>ReturnTuple(sdnn=12.364539861669305)</t>
         </is>
       </c>
     </row>
@@ -6446,22 +6446,22 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.170378684973258)</t>
+          <t>ReturnTuple(sdnn=20.652088866746492)</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.71005291076101)</t>
+          <t>ReturnTuple(sdnn=19.537582133032934)</t>
         </is>
       </c>
     </row>
@@ -6506,22 +6506,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.88262694888513)</t>
+          <t>ReturnTuple(sdnn=16.696454416794204)</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.71246854480564)</t>
+          <t>ReturnTuple(sdnn=15.725807721435299)</t>
         </is>
       </c>
     </row>
@@ -6566,22 +6566,22 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.397005291845527)</t>
+          <t>ReturnTuple(sdnn=18.335435819128826)</t>
         </is>
       </c>
     </row>
@@ -6596,22 +6596,22 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.921940328039973)</t>
+          <t>ReturnTuple(sdnn=22.88504217649927)</t>
         </is>
       </c>
     </row>
@@ -6626,22 +6626,22 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.580998261719634)</t>
+          <t>ReturnTuple(sdnn=9.58377822376317)</t>
         </is>
       </c>
     </row>
@@ -6656,22 +6656,22 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.974286121689282)</t>
+          <t>ReturnTuple(sdnn=19.04893849338404)</t>
         </is>
       </c>
     </row>

--- a/apgar1healthy.xlsx
+++ b/apgar1healthy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,659 +476,659 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08410862002917)</t>
+          <t>ReturnTuple(sdnn=12.415277234800492)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08410862002917)</t>
+          <t>ReturnTuple(sdnn=12.415277234800492)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08410862002917)</t>
+          <t>ReturnTuple(sdnn=12.415277234800492)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08410862002917)</t>
+          <t>ReturnTuple(sdnn=12.415277234800492)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1004</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.097714871858216)</t>
+          <t>ReturnTuple(sdnn=11.045326159295962)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.097714871858216)</t>
+          <t>ReturnTuple(sdnn=11.045326159295962)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.097714871858216)</t>
+          <t>ReturnTuple(sdnn=11.045326159295962)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.097714871858216)</t>
+          <t>ReturnTuple(sdnn=11.045326159295962)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1008</t>
+          <t>1004</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.36</v>
+        <v>7.3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.880010865923875)</t>
+          <t>ReturnTuple(sdnn=14.468483183900876)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.880010865923875)</t>
+          <t>ReturnTuple(sdnn=14.468483183900876)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.880010865923875)</t>
+          <t>ReturnTuple(sdnn=14.468483183900876)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.880010865923875)</t>
+          <t>ReturnTuple(sdnn=14.468483183900876)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1011</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.37</v>
+        <v>7.16</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.226580923603613)</t>
+          <t>ReturnTuple(sdnn=21.85490063778736)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.226580923603613)</t>
+          <t>ReturnTuple(sdnn=21.85490063778736)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.226580923603613)</t>
+          <t>ReturnTuple(sdnn=21.85490063778736)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.226580923603613)</t>
+          <t>ReturnTuple(sdnn=21.85490063778736)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1008</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.14</v>
+        <v>7.36</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.391346970766868)</t>
+          <t>ReturnTuple(sdnn=12.298829604198007)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.391346970766868)</t>
+          <t>ReturnTuple(sdnn=12.298829604198007)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.391346970766868)</t>
+          <t>ReturnTuple(sdnn=12.298829604198007)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.391346970766868)</t>
+          <t>ReturnTuple(sdnn=12.298829604198007)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>1019</t>
+          <t>1011</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.15</v>
+        <v>7.37</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.641889603195118)</t>
+          <t>ReturnTuple(sdnn=19.881542150240232)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.641889603195118)</t>
+          <t>ReturnTuple(sdnn=19.881542150240232)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.641889603195118)</t>
+          <t>ReturnTuple(sdnn=19.881542150240232)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.641889603195118)</t>
+          <t>ReturnTuple(sdnn=19.881542150240232)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.37</v>
+        <v>7.14</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.403251376805768)</t>
+          <t>ReturnTuple(sdnn=21.039779211072673)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.403251376805768)</t>
+          <t>ReturnTuple(sdnn=21.039779211072673)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.403251376805768)</t>
+          <t>ReturnTuple(sdnn=21.039779211072673)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.403251376805768)</t>
+          <t>ReturnTuple(sdnn=21.039779211072673)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>1023</t>
+          <t>1019</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7.3</v>
+        <v>7.15</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.11654462066984)</t>
+          <t>ReturnTuple(sdnn=20.035327228164885)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.11654462066984)</t>
+          <t>ReturnTuple(sdnn=20.035327228164885)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.11654462066984)</t>
+          <t>ReturnTuple(sdnn=20.035327228164885)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.11654462066984)</t>
+          <t>ReturnTuple(sdnn=20.035327228164885)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>1024</t>
+          <t>1020</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.43</v>
+        <v>7.37</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.400691219266495)</t>
+          <t>ReturnTuple(sdnn=12.262675774151159)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.400691219266495)</t>
+          <t>ReturnTuple(sdnn=12.262675774151159)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.400691219266495)</t>
+          <t>ReturnTuple(sdnn=12.262675774151159)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.400691219266495)</t>
+          <t>ReturnTuple(sdnn=12.262675774151159)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>1027</t>
+          <t>1023</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.33</v>
+        <v>7.3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69897660526439)</t>
+          <t>ReturnTuple(sdnn=20.198454503101267)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69897660526439)</t>
+          <t>ReturnTuple(sdnn=20.198454503101267)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69897660526439)</t>
+          <t>ReturnTuple(sdnn=20.198454503101267)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.69897660526439)</t>
+          <t>ReturnTuple(sdnn=20.198454503101267)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.25</v>
+        <v>7.43</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.42203909599926)</t>
+          <t>ReturnTuple(sdnn=14.027749657914397)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.42203909599926)</t>
+          <t>ReturnTuple(sdnn=14.027749657914397)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.42203909599926)</t>
+          <t>ReturnTuple(sdnn=14.027749657914397)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.42203909599926)</t>
+          <t>ReturnTuple(sdnn=14.027749657914397)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>1029</t>
+          <t>1027</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.97</v>
+        <v>7.33</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.481429895313855)</t>
+          <t>ReturnTuple(sdnn=19.538874289030492)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.481429895313855)</t>
+          <t>ReturnTuple(sdnn=19.538874289030492)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.481429895313855)</t>
+          <t>ReturnTuple(sdnn=19.538874289030492)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.481429895313855)</t>
+          <t>ReturnTuple(sdnn=19.538874289030492)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>1030</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.16</v>
+        <v>6.97</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.64314005938282)</t>
+          <t>ReturnTuple(sdnn=15.269072969186816)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.64314005938282)</t>
+          <t>ReturnTuple(sdnn=15.269072969186816)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.64314005938282)</t>
+          <t>ReturnTuple(sdnn=15.269072969186816)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.64314005938282)</t>
+          <t>ReturnTuple(sdnn=15.269072969186816)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>1032</t>
+          <t>1030</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.3</v>
+        <v>7.16</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.48468293936491)</t>
+          <t>ReturnTuple(sdnn=18.150810183643767)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.48468293936491)</t>
+          <t>ReturnTuple(sdnn=18.150810183643767)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.48468293936491)</t>
+          <t>ReturnTuple(sdnn=18.150810183643767)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.48468293936491)</t>
+          <t>ReturnTuple(sdnn=18.150810183643767)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>1032</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.32</v>
+        <v>7.3</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.50738219762121)</t>
+          <t>ReturnTuple(sdnn=19.72691965767978)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.50738219762121)</t>
+          <t>ReturnTuple(sdnn=19.72691965767978)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.50738219762121)</t>
+          <t>ReturnTuple(sdnn=19.72691965767978)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.50738219762121)</t>
+          <t>ReturnTuple(sdnn=19.72691965767978)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>1034</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.23</v>
+        <v>7.32</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.139801826199893)</t>
+          <t>ReturnTuple(sdnn=21.572435794113428)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.139801826199893)</t>
+          <t>ReturnTuple(sdnn=21.572435794113428)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.139801826199893)</t>
+          <t>ReturnTuple(sdnn=21.572435794113428)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.139801826199893)</t>
+          <t>ReturnTuple(sdnn=21.572435794113428)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>1036</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.08</v>
+        <v>7.23</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.76040819052499)</t>
+          <t>ReturnTuple(sdnn=14.174883038440626)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.76040819052499)</t>
+          <t>ReturnTuple(sdnn=14.174883038440626)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.76040819052499)</t>
+          <t>ReturnTuple(sdnn=14.174883038440626)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.76040819052499)</t>
+          <t>ReturnTuple(sdnn=14.174883038440626)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>1038</t>
+          <t>1036</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.33</v>
+        <v>7.08</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95406842612953)</t>
+          <t>ReturnTuple(sdnn=24.99968899755239)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95406842612953)</t>
+          <t>ReturnTuple(sdnn=24.99968899755239)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95406842612953)</t>
+          <t>ReturnTuple(sdnn=24.99968899755239)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95406842612953)</t>
+          <t>ReturnTuple(sdnn=24.99968899755239)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>1040</t>
+          <t>1038</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>7.17</v>
+        <v>7.33</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.648053602663623)</t>
+          <t>ReturnTuple(sdnn=14.771186943954199)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.648053602663623)</t>
+          <t>ReturnTuple(sdnn=14.771186943954199)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.648053602663623)</t>
+          <t>ReturnTuple(sdnn=14.771186943954199)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.648053602663623)</t>
+          <t>ReturnTuple(sdnn=14.771186943954199)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>1040</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.14</v>
+        <v>7.17</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.79194267403372)</t>
+          <t>ReturnTuple(sdnn=14.849093380910974)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.79194267403372)</t>
+          <t>ReturnTuple(sdnn=14.849093380910974)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.79194267403372)</t>
+          <t>ReturnTuple(sdnn=14.849093380910974)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.79194267403372)</t>
+          <t>ReturnTuple(sdnn=14.849093380910974)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1042</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.13</v>
+        <v>7.14</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.303791031604497)</t>
+          <t>ReturnTuple(sdnn=15.026683975965875)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.303791031604497)</t>
+          <t>ReturnTuple(sdnn=15.026683975965875)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.303791031604497)</t>
+          <t>ReturnTuple(sdnn=15.026683975965875)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.303791031604497)</t>
+          <t>ReturnTuple(sdnn=15.026683975965875)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>1042</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.29</v>
+        <v>7.13</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.440094392724703)</t>
+          <t>ReturnTuple(sdnn=15.346203616357345)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.440094392724703)</t>
+          <t>ReturnTuple(sdnn=15.346203616357345)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.440094392724703)</t>
+          <t>ReturnTuple(sdnn=15.346203616357345)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.440094392724703)</t>
+          <t>ReturnTuple(sdnn=15.346203616357345)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1136,899 +1136,899 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.6909106070813)</t>
+          <t>ReturnTuple(sdnn=13.445106296642134)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.6909106070813)</t>
+          <t>ReturnTuple(sdnn=13.445106296642134)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.6909106070813)</t>
+          <t>ReturnTuple(sdnn=13.445106296642134)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.6909106070813)</t>
+          <t>ReturnTuple(sdnn=13.445106296642134)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1053</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.35</v>
+        <v>7.24</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.845623260990065)</t>
+          <t>ReturnTuple(sdnn=18.098149025599167)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.845623260990065)</t>
+          <t>ReturnTuple(sdnn=18.098149025599167)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.845623260990065)</t>
+          <t>ReturnTuple(sdnn=18.098149025599167)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.845623260990065)</t>
+          <t>ReturnTuple(sdnn=18.098149025599167)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>1053</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7.28</v>
+        <v>7.35</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.518774061001515)</t>
+          <t>ReturnTuple(sdnn=10.03935888735894)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.518774061001515)</t>
+          <t>ReturnTuple(sdnn=10.03935888735894)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.518774061001515)</t>
+          <t>ReturnTuple(sdnn=10.03935888735894)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.518774061001515)</t>
+          <t>ReturnTuple(sdnn=10.03935888735894)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1055</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>7.22</v>
+        <v>7.28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.692955194582183)</t>
+          <t>ReturnTuple(sdnn=8.363095365154958)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.692955194582183)</t>
+          <t>ReturnTuple(sdnn=8.363095365154958)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.692955194582183)</t>
+          <t>ReturnTuple(sdnn=8.363095365154958)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.692955194582183)</t>
+          <t>ReturnTuple(sdnn=8.363095365154958)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>1066</t>
+          <t>1056</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.27</v>
+        <v>7.32</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.733470485527892)</t>
+          <t>ReturnTuple(sdnn=10.447342198417427)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.733470485527892)</t>
+          <t>ReturnTuple(sdnn=10.447342198417427)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.733470485527892)</t>
+          <t>ReturnTuple(sdnn=10.447342198417427)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.733470485527892)</t>
+          <t>ReturnTuple(sdnn=10.447342198417427)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1057</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.92</v>
+        <v>7.27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.180966176439913)</t>
+          <t>ReturnTuple(sdnn=11.735942096591724)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.180966176439913)</t>
+          <t>ReturnTuple(sdnn=11.735942096591724)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.180966176439913)</t>
+          <t>ReturnTuple(sdnn=11.735942096591724)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.180966176439913)</t>
+          <t>ReturnTuple(sdnn=11.735942096591724)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>1086</t>
+          <t>1061</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.25</v>
+        <v>7.22</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.757427678275844)</t>
+          <t>ReturnTuple(sdnn=16.736348991336104)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.757427678275844)</t>
+          <t>ReturnTuple(sdnn=16.736348991336104)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.757427678275844)</t>
+          <t>ReturnTuple(sdnn=16.736348991336104)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.757427678275844)</t>
+          <t>ReturnTuple(sdnn=16.736348991336104)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>1088</t>
+          <t>1063</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.25</v>
+        <v>7.16</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.305090047234918)</t>
+          <t>ReturnTuple(sdnn=16.127111618692748)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.305090047234918)</t>
+          <t>ReturnTuple(sdnn=16.127111618692748)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.305090047234918)</t>
+          <t>ReturnTuple(sdnn=16.127111618692748)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.305090047234918)</t>
+          <t>ReturnTuple(sdnn=16.127111618692748)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>1090</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>7.17</v>
+        <v>7.27</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.99657816225741)</t>
+          <t>ReturnTuple(sdnn=15.924737703088372)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.99657816225741)</t>
+          <t>ReturnTuple(sdnn=15.924737703088372)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.99657816225741)</t>
+          <t>ReturnTuple(sdnn=15.924737703088372)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.99657816225741)</t>
+          <t>ReturnTuple(sdnn=15.924737703088372)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>1092</t>
+          <t>1068</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.26</v>
+        <v>7.34</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.304781829563343)</t>
+          <t>ReturnTuple(sdnn=6.0814635949161095)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.304781829563343)</t>
+          <t>ReturnTuple(sdnn=6.0814635949161095)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.304781829563343)</t>
+          <t>ReturnTuple(sdnn=6.0814635949161095)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.304781829563343)</t>
+          <t>ReturnTuple(sdnn=6.0814635949161095)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.2</v>
+        <v>6.92</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.347759574349126)</t>
+          <t>ReturnTuple(sdnn=22.975107032549502)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.347759574349126)</t>
+          <t>ReturnTuple(sdnn=22.975107032549502)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.347759574349126)</t>
+          <t>ReturnTuple(sdnn=22.975107032549502)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.347759574349126)</t>
+          <t>ReturnTuple(sdnn=22.975107032549502)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.18</v>
+        <v>7.17</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.370840088742042)</t>
+          <t>ReturnTuple(sdnn=14.92226581773668)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.370840088742042)</t>
+          <t>ReturnTuple(sdnn=14.92226581773668)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.370840088742042)</t>
+          <t>ReturnTuple(sdnn=14.92226581773668)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.370840088742042)</t>
+          <t>ReturnTuple(sdnn=14.92226581773668)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>1086</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.3</v>
+        <v>7.25</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.314408281608085)</t>
+          <t>ReturnTuple(sdnn=10.151733178418288)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.314408281608085)</t>
+          <t>ReturnTuple(sdnn=10.151733178418288)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.314408281608085)</t>
+          <t>ReturnTuple(sdnn=10.151733178418288)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.314408281608085)</t>
+          <t>ReturnTuple(sdnn=10.151733178418288)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1088</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7.35</v>
+        <v>7.25</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.087297034869923)</t>
+          <t>ReturnTuple(sdnn=13.45041442926141)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.087297034869923)</t>
+          <t>ReturnTuple(sdnn=13.45041442926141)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.087297034869923)</t>
+          <t>ReturnTuple(sdnn=13.45041442926141)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.087297034869923)</t>
+          <t>ReturnTuple(sdnn=13.45041442926141)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1090</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.31</v>
+        <v>7.17</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.71349186089928)</t>
+          <t>ReturnTuple(sdnn=19.106677846718355)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.71349186089928)</t>
+          <t>ReturnTuple(sdnn=19.106677846718355)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.71349186089928)</t>
+          <t>ReturnTuple(sdnn=19.106677846718355)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.71349186089928)</t>
+          <t>ReturnTuple(sdnn=19.106677846718355)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>1104</t>
+          <t>1092</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.92</v>
+        <v>7.26</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.36972366225153)</t>
+          <t>ReturnTuple(sdnn=9.42395852797925)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.36972366225153)</t>
+          <t>ReturnTuple(sdnn=9.42395852797925)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.36972366225153)</t>
+          <t>ReturnTuple(sdnn=9.42395852797925)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.36972366225153)</t>
+          <t>ReturnTuple(sdnn=9.42395852797925)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>1094</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>7.25</v>
+        <v>7.2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.542213966329165)</t>
+          <t>ReturnTuple(sdnn=10.354783043947288)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.542213966329165)</t>
+          <t>ReturnTuple(sdnn=10.354783043947288)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.542213966329165)</t>
+          <t>ReturnTuple(sdnn=10.354783043947288)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.542213966329165)</t>
+          <t>ReturnTuple(sdnn=10.354783043947288)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.27</v>
+        <v>7.18</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.634101497356022)</t>
+          <t>ReturnTuple(sdnn=13.126943460013623)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.634101497356022)</t>
+          <t>ReturnTuple(sdnn=13.126943460013623)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.634101497356022)</t>
+          <t>ReturnTuple(sdnn=13.126943460013623)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.634101497356022)</t>
+          <t>ReturnTuple(sdnn=13.126943460013623)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>1114</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.24</v>
+        <v>7.35</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.249761615133682)</t>
+          <t>ReturnTuple(sdnn=9.202202800944377)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.249761615133682)</t>
+          <t>ReturnTuple(sdnn=9.202202800944377)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.249761615133682)</t>
+          <t>ReturnTuple(sdnn=9.202202800944377)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.249761615133682)</t>
+          <t>ReturnTuple(sdnn=9.202202800944377)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>7.13</v>
+        <v>7.31</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.506718299949853)</t>
+          <t>ReturnTuple(sdnn=6.761156970505606)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.506718299949853)</t>
+          <t>ReturnTuple(sdnn=6.761156970505606)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.506718299949853)</t>
+          <t>ReturnTuple(sdnn=6.761156970505606)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.506718299949853)</t>
+          <t>ReturnTuple(sdnn=6.761156970505606)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>1116</t>
+          <t>1104</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.24</v>
+        <v>6.92</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.188171146992373)</t>
+          <t>ReturnTuple(sdnn=22.087852072156164)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.188171146992373)</t>
+          <t>ReturnTuple(sdnn=22.087852072156164)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.188171146992373)</t>
+          <t>ReturnTuple(sdnn=22.087852072156164)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.188171146992373)</t>
+          <t>ReturnTuple(sdnn=22.087852072156164)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1106</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.16</v>
+        <v>7.25</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.421696974683169)</t>
+          <t>ReturnTuple(sdnn=8.504268799538298)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.421696974683169)</t>
+          <t>ReturnTuple(sdnn=8.504268799538298)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.421696974683169)</t>
+          <t>ReturnTuple(sdnn=8.504268799538298)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.421696974683169)</t>
+          <t>ReturnTuple(sdnn=8.504268799538298)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>7.09</v>
+        <v>7.27</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.007814445012215)</t>
+          <t>ReturnTuple(sdnn=11.67461469051567)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.007814445012215)</t>
+          <t>ReturnTuple(sdnn=11.67461469051567)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.007814445012215)</t>
+          <t>ReturnTuple(sdnn=11.67461469051567)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.007814445012215)</t>
+          <t>ReturnTuple(sdnn=11.67461469051567)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1114</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7.31</v>
+        <v>7.24</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.733937998808893)</t>
+          <t>ReturnTuple(sdnn=9.437883830103658)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.733937998808893)</t>
+          <t>ReturnTuple(sdnn=9.437883830103658)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.733937998808893)</t>
+          <t>ReturnTuple(sdnn=9.437883830103658)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.733937998808893)</t>
+          <t>ReturnTuple(sdnn=9.437883830103658)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>1127</t>
+          <t>1115</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.35</v>
+        <v>7.13</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.026887019213078)</t>
+          <t>ReturnTuple(sdnn=17.22141764226122)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.026887019213078)</t>
+          <t>ReturnTuple(sdnn=17.22141764226122)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.026887019213078)</t>
+          <t>ReturnTuple(sdnn=17.22141764226122)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.026887019213078)</t>
+          <t>ReturnTuple(sdnn=17.22141764226122)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>1129</t>
+          <t>1116</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.33</v>
+        <v>7.24</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.058399056193023)</t>
+          <t>ReturnTuple(sdnn=9.915295386482473)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.058399056193023)</t>
+          <t>ReturnTuple(sdnn=9.915295386482473)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.058399056193023)</t>
+          <t>ReturnTuple(sdnn=9.915295386482473)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.058399056193023)</t>
+          <t>ReturnTuple(sdnn=9.915295386482473)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.13</v>
+        <v>7.16</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.448211435487327)</t>
+          <t>ReturnTuple(sdnn=13.356459223013422)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.448211435487327)</t>
+          <t>ReturnTuple(sdnn=13.356459223013422)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.448211435487327)</t>
+          <t>ReturnTuple(sdnn=13.356459223013422)</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.448211435487327)</t>
+          <t>ReturnTuple(sdnn=13.356459223013422)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>1136</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.17</v>
+        <v>7.09</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.38062450185551)</t>
+          <t>ReturnTuple(sdnn=19.71399945148513)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.38062450185551)</t>
+          <t>ReturnTuple(sdnn=19.71399945148513)</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.38062450185551)</t>
+          <t>ReturnTuple(sdnn=19.71399945148513)</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.38062450185551)</t>
+          <t>ReturnTuple(sdnn=19.71399945148513)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>7.16</v>
+        <v>7.32</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.93655630140435)</t>
+          <t>ReturnTuple(sdnn=12.816728530935157)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.93655630140435)</t>
+          <t>ReturnTuple(sdnn=12.816728530935157)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.93655630140435)</t>
+          <t>ReturnTuple(sdnn=12.816728530935157)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.93655630140435)</t>
+          <t>ReturnTuple(sdnn=12.816728530935157)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>7.47</v>
+        <v>7.25</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.1563999197536)</t>
+          <t>ReturnTuple(sdnn=16.236650872319718)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.1563999197536)</t>
+          <t>ReturnTuple(sdnn=16.236650872319718)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.1563999197536)</t>
+          <t>ReturnTuple(sdnn=16.236650872319718)</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.1563999197536)</t>
+          <t>ReturnTuple(sdnn=16.236650872319718)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1123</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2036,569 +2036,569 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.10236611427594)</t>
+          <t>ReturnTuple(sdnn=8.673948922877939)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.10236611427594)</t>
+          <t>ReturnTuple(sdnn=8.673948922877939)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.10236611427594)</t>
+          <t>ReturnTuple(sdnn=8.673948922877939)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.10236611427594)</t>
+          <t>ReturnTuple(sdnn=8.673948922877939)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>1142</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>7.33</v>
+        <v>7.25</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.212030323476004)</t>
+          <t>ReturnTuple(sdnn=10.445947094897186)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.212030323476004)</t>
+          <t>ReturnTuple(sdnn=10.445947094897186)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.212030323476004)</t>
+          <t>ReturnTuple(sdnn=10.445947094897186)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=28.212030323476004)</t>
+          <t>ReturnTuple(sdnn=10.445947094897186)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>7.29</v>
+        <v>7.35</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.79700256845402)</t>
+          <t>ReturnTuple(sdnn=17.39625422827646)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.79700256845402)</t>
+          <t>ReturnTuple(sdnn=17.39625422827646)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.79700256845402)</t>
+          <t>ReturnTuple(sdnn=17.39625422827646)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.79700256845402)</t>
+          <t>ReturnTuple(sdnn=17.39625422827646)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.443456776105297)</t>
+          <t>ReturnTuple(sdnn=11.421955173173355)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.443456776105297)</t>
+          <t>ReturnTuple(sdnn=11.421955173173355)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.443456776105297)</t>
+          <t>ReturnTuple(sdnn=11.421955173173355)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.443456776105297)</t>
+          <t>ReturnTuple(sdnn=11.421955173173355)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>7.23</v>
+        <v>7.13</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.706895705954155)</t>
+          <t>ReturnTuple(sdnn=18.371164829626647)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.706895705954155)</t>
+          <t>ReturnTuple(sdnn=18.371164829626647)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.706895705954155)</t>
+          <t>ReturnTuple(sdnn=18.371164829626647)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.706895705954155)</t>
+          <t>ReturnTuple(sdnn=18.371164829626647)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>1153</t>
+          <t>1135</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>7.29</v>
+        <v>7.18</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.084378285864958)</t>
+          <t>ReturnTuple(sdnn=14.039329199690142)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.084378285864958)</t>
+          <t>ReturnTuple(sdnn=14.039329199690142)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.084378285864958)</t>
+          <t>ReturnTuple(sdnn=14.039329199690142)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.084378285864958)</t>
+          <t>ReturnTuple(sdnn=14.039329199690142)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1136</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.34</v>
+        <v>7.17</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.778646960092408)</t>
+          <t>ReturnTuple(sdnn=25.998501201150127)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.778646960092408)</t>
+          <t>ReturnTuple(sdnn=25.998501201150127)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.778646960092408)</t>
+          <t>ReturnTuple(sdnn=25.998501201150127)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.778646960092408)</t>
+          <t>ReturnTuple(sdnn=25.998501201150127)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>1157</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>7.11</v>
+        <v>7.16</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.252452506781696)</t>
+          <t>ReturnTuple(sdnn=13.887504937589911)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.252452506781696)</t>
+          <t>ReturnTuple(sdnn=13.887504937589911)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.252452506781696)</t>
+          <t>ReturnTuple(sdnn=13.887504937589911)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.252452506781696)</t>
+          <t>ReturnTuple(sdnn=13.887504937589911)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1139</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>7.12</v>
+        <v>7.47</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.254275116053112)</t>
+          <t>ReturnTuple(sdnn=16.460317744204723)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.254275116053112)</t>
+          <t>ReturnTuple(sdnn=16.460317744204723)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.254275116053112)</t>
+          <t>ReturnTuple(sdnn=16.460317744204723)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.254275116053112)</t>
+          <t>ReturnTuple(sdnn=16.460317744204723)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>7.35</v>
+        <v>7.31</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.485085288784715)</t>
+          <t>ReturnTuple(sdnn=15.963481953399096)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.485085288784715)</t>
+          <t>ReturnTuple(sdnn=15.963481953399096)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.485085288784715)</t>
+          <t>ReturnTuple(sdnn=15.963481953399096)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.485085288784715)</t>
+          <t>ReturnTuple(sdnn=15.963481953399096)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>1166</t>
+          <t>1142</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>7.26</v>
+        <v>7.33</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.436735394469807)</t>
+          <t>ReturnTuple(sdnn=27.09077771525407)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.436735394469807)</t>
+          <t>ReturnTuple(sdnn=27.09077771525407)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.436735394469807)</t>
+          <t>ReturnTuple(sdnn=27.09077771525407)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.436735394469807)</t>
+          <t>ReturnTuple(sdnn=27.09077771525407)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.36</v>
+        <v>7.29</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.514512207201056)</t>
+          <t>ReturnTuple(sdnn=21.30880497173002)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.514512207201056)</t>
+          <t>ReturnTuple(sdnn=21.30880497173002)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.514512207201056)</t>
+          <t>ReturnTuple(sdnn=21.30880497173002)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.514512207201056)</t>
+          <t>ReturnTuple(sdnn=21.30880497173002)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>1145</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.23</v>
+        <v>7.35</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.356729808056844)</t>
+          <t>ReturnTuple(sdnn=22.757931780704293)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.356729808056844)</t>
+          <t>ReturnTuple(sdnn=22.757931780704293)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.356729808056844)</t>
+          <t>ReturnTuple(sdnn=22.757931780704293)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.356729808056844)</t>
+          <t>ReturnTuple(sdnn=22.757931780704293)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>1170</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>7.21</v>
+        <v>7.32</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.068655061578795)</t>
+          <t>ReturnTuple(sdnn=11.817616721999615)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.068655061578795)</t>
+          <t>ReturnTuple(sdnn=11.817616721999615)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.068655061578795)</t>
+          <t>ReturnTuple(sdnn=11.817616721999615)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.068655061578795)</t>
+          <t>ReturnTuple(sdnn=11.817616721999615)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>1175</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.378730112258193)</t>
+          <t>ReturnTuple(sdnn=9.485739609264954)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.378730112258193)</t>
+          <t>ReturnTuple(sdnn=9.485739609264954)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.378730112258193)</t>
+          <t>ReturnTuple(sdnn=9.485739609264954)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.378730112258193)</t>
+          <t>ReturnTuple(sdnn=9.485739609264954)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>1176</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7.22</v>
+        <v>7.23</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.53236237750666)</t>
+          <t>ReturnTuple(sdnn=13.097661544766929)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.53236237750666)</t>
+          <t>ReturnTuple(sdnn=13.097661544766929)</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.53236237750666)</t>
+          <t>ReturnTuple(sdnn=13.097661544766929)</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.53236237750666)</t>
+          <t>ReturnTuple(sdnn=13.097661544766929)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>1153</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>7.26</v>
+        <v>7.29</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060820611777096)</t>
+          <t>ReturnTuple(sdnn=16.66021197916461)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060820611777096)</t>
+          <t>ReturnTuple(sdnn=16.66021197916461)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060820611777096)</t>
+          <t>ReturnTuple(sdnn=16.66021197916461)</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060820611777096)</t>
+          <t>ReturnTuple(sdnn=16.66021197916461)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7.07</v>
+        <v>7.34</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.206754169153196)</t>
+          <t>ReturnTuple(sdnn=5.465310833219711)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.206754169153196)</t>
+          <t>ReturnTuple(sdnn=5.465310833219711)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.206754169153196)</t>
+          <t>ReturnTuple(sdnn=5.465310833219711)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.206754169153196)</t>
+          <t>ReturnTuple(sdnn=5.465310833219711)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1157</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>7.28</v>
+        <v>7.11</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.358529721283706)</t>
+          <t>ReturnTuple(sdnn=11.989348484984472)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.358529721283706)</t>
+          <t>ReturnTuple(sdnn=11.989348484984472)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.358529721283706)</t>
+          <t>ReturnTuple(sdnn=11.989348484984472)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.358529721283706)</t>
+          <t>ReturnTuple(sdnn=11.989348484984472)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>1185</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2606,449 +2606,449 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.943115803553207)</t>
+          <t>ReturnTuple(sdnn=12.133116565961567)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.943115803553207)</t>
+          <t>ReturnTuple(sdnn=12.133116565961567)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.943115803553207)</t>
+          <t>ReturnTuple(sdnn=12.133116565961567)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.943115803553207)</t>
+          <t>ReturnTuple(sdnn=12.133116565961567)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>7.19</v>
+        <v>7.35</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.613835376202113)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.613835376202113)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.613835376202113)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.613835376202113)</t>
+          <t>ReturnTuple(sdnn=15.485085288784715)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>1192</t>
+          <t>1163</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>7.3</v>
+        <v>7.24</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.254390107890609)</t>
+          <t>ReturnTuple(sdnn=18.54052360399247)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.254390107890609)</t>
+          <t>ReturnTuple(sdnn=18.54052360399247)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.254390107890609)</t>
+          <t>ReturnTuple(sdnn=18.54052360399247)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=6.254390107890609)</t>
+          <t>ReturnTuple(sdnn=18.54052360399247)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>1166</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>7.32</v>
+        <v>7.26</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.876925386017916)</t>
+          <t>ReturnTuple(sdnn=14.165528895817)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.876925386017916)</t>
+          <t>ReturnTuple(sdnn=14.165528895817)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.876925386017916)</t>
+          <t>ReturnTuple(sdnn=14.165528895817)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.876925386017916)</t>
+          <t>ReturnTuple(sdnn=14.165528895817)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>1194</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>7.35</v>
+        <v>7.36</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.409107745785303)</t>
+          <t>ReturnTuple(sdnn=8.629195704327705)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.409107745785303)</t>
+          <t>ReturnTuple(sdnn=8.629195704327705)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.409107745785303)</t>
+          <t>ReturnTuple(sdnn=8.629195704327705)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.409107745785303)</t>
+          <t>ReturnTuple(sdnn=8.629195704327705)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>7.3</v>
+        <v>7.23</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.751653363968355)</t>
+          <t>ReturnTuple(sdnn=22.38862295973328)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.751653363968355)</t>
+          <t>ReturnTuple(sdnn=22.38862295973328)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.751653363968355)</t>
+          <t>ReturnTuple(sdnn=22.38862295973328)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.751653363968355)</t>
+          <t>ReturnTuple(sdnn=22.38862295973328)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>1170</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>7.25</v>
+        <v>7.21</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.92078853942775)</t>
+          <t>ReturnTuple(sdnn=12.972631582202885)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.92078853942775)</t>
+          <t>ReturnTuple(sdnn=12.972631582202885)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.92078853942775)</t>
+          <t>ReturnTuple(sdnn=12.972631582202885)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.92078853942775)</t>
+          <t>ReturnTuple(sdnn=12.972631582202885)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>1175</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>7.29</v>
+        <v>7.24</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.207622810760522)</t>
+          <t>ReturnTuple(sdnn=7.201428056233561)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.207622810760522)</t>
+          <t>ReturnTuple(sdnn=7.201428056233561)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.207622810760522)</t>
+          <t>ReturnTuple(sdnn=7.201428056233561)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.207622810760522)</t>
+          <t>ReturnTuple(sdnn=7.201428056233561)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>1203</t>
+          <t>1176</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7.34</v>
+        <v>7.22</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.63049893589106)</t>
+          <t>ReturnTuple(sdnn=16.095203010425145)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.63049893589106)</t>
+          <t>ReturnTuple(sdnn=16.095203010425145)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.63049893589106)</t>
+          <t>ReturnTuple(sdnn=16.095203010425145)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.63049893589106)</t>
+          <t>ReturnTuple(sdnn=16.095203010425145)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>7.34</v>
+        <v>7.26</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.790137803261384)</t>
+          <t>ReturnTuple(sdnn=12.98425237919064)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.790137803261384)</t>
+          <t>ReturnTuple(sdnn=12.98425237919064)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.790137803261384)</t>
+          <t>ReturnTuple(sdnn=12.98425237919064)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.790137803261384)</t>
+          <t>ReturnTuple(sdnn=12.98425237919064)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>1208</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>7.23</v>
+        <v>7.07</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.088926113605936)</t>
+          <t>ReturnTuple(sdnn=21.765883188841286)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.088926113605936)</t>
+          <t>ReturnTuple(sdnn=21.765883188841286)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.088926113605936)</t>
+          <t>ReturnTuple(sdnn=21.765883188841286)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.088926113605936)</t>
+          <t>ReturnTuple(sdnn=21.765883188841286)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.747988378415592)</t>
+          <t>ReturnTuple(sdnn=4.071417551117122)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.747988378415592)</t>
+          <t>ReturnTuple(sdnn=4.071417551117122)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.747988378415592)</t>
+          <t>ReturnTuple(sdnn=4.071417551117122)</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.747988378415592)</t>
+          <t>ReturnTuple(sdnn=4.071417551117122)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>1185</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7.28</v>
+        <v>7.12</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.512262145006545)</t>
+          <t>ReturnTuple(sdnn=13.447715627789435)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.512262145006545)</t>
+          <t>ReturnTuple(sdnn=13.447715627789435)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.512262145006545)</t>
+          <t>ReturnTuple(sdnn=13.447715627789435)</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.512262145006545)</t>
+          <t>ReturnTuple(sdnn=13.447715627789435)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>1217</t>
+          <t>1187</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>7.18</v>
+        <v>7.08</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.70887871797213)</t>
+          <t>ReturnTuple(sdnn=12.586463907725772)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.70887871797213)</t>
+          <t>ReturnTuple(sdnn=12.586463907725772)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.70887871797213)</t>
+          <t>ReturnTuple(sdnn=12.586463907725772)</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.70887871797213)</t>
+          <t>ReturnTuple(sdnn=12.586463907725772)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>1219</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>7.15</v>
+        <v>7.19</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.46542684210434)</t>
+          <t>ReturnTuple(sdnn=11.269390737287846)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.46542684210434)</t>
+          <t>ReturnTuple(sdnn=11.269390737287846)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.46542684210434)</t>
+          <t>ReturnTuple(sdnn=11.269390737287846)</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.46542684210434)</t>
+          <t>ReturnTuple(sdnn=11.269390737287846)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>1220</t>
+          <t>1192</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3056,299 +3056,299 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.105742642636198)</t>
+          <t>ReturnTuple(sdnn=5.545606988972353)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.105742642636198)</t>
+          <t>ReturnTuple(sdnn=5.545606988972353)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.105742642636198)</t>
+          <t>ReturnTuple(sdnn=5.545606988972353)</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.105742642636198)</t>
+          <t>ReturnTuple(sdnn=5.545606988972353)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>1221</t>
+          <t>1193</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>7.35</v>
+        <v>7.32</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.742075730529475)</t>
+          <t>ReturnTuple(sdnn=14.017554335991775)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.742075730529475)</t>
+          <t>ReturnTuple(sdnn=14.017554335991775)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.742075730529475)</t>
+          <t>ReturnTuple(sdnn=14.017554335991775)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.742075730529475)</t>
+          <t>ReturnTuple(sdnn=14.017554335991775)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>1224</t>
+          <t>1194</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>7.33</v>
+        <v>7.35</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.366671209861865)</t>
+          <t>ReturnTuple(sdnn=13.433600593198065)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.366671209861865)</t>
+          <t>ReturnTuple(sdnn=13.433600593198065)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.366671209861865)</t>
+          <t>ReturnTuple(sdnn=13.433600593198065)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.366671209861865)</t>
+          <t>ReturnTuple(sdnn=13.433600593198065)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1195</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>7.42</v>
+        <v>7.3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.582519393645741)</t>
+          <t>ReturnTuple(sdnn=12.924161184818491)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.582519393645741)</t>
+          <t>ReturnTuple(sdnn=12.924161184818491)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.582519393645741)</t>
+          <t>ReturnTuple(sdnn=12.924161184818491)</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.582519393645741)</t>
+          <t>ReturnTuple(sdnn=12.924161184818491)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>1230</t>
+          <t>1200</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>7.37</v>
+        <v>7.25</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.056527631431115)</t>
+          <t>ReturnTuple(sdnn=15.368655630205085)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.056527631431115)</t>
+          <t>ReturnTuple(sdnn=15.368655630205085)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.056527631431115)</t>
+          <t>ReturnTuple(sdnn=15.368655630205085)</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.056527631431115)</t>
+          <t>ReturnTuple(sdnn=15.368655630205085)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>1233</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>7.36</v>
+        <v>7.29</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.630414808800865)</t>
+          <t>ReturnTuple(sdnn=19.188721225453186)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.630414808800865)</t>
+          <t>ReturnTuple(sdnn=19.188721225453186)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.630414808800865)</t>
+          <t>ReturnTuple(sdnn=19.188721225453186)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.630414808800865)</t>
+          <t>ReturnTuple(sdnn=19.188721225453186)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1203</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>7.29</v>
+        <v>7.34</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.33276797600235)</t>
+          <t>ReturnTuple(sdnn=9.422643876976842)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.33276797600235)</t>
+          <t>ReturnTuple(sdnn=9.422643876976842)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.33276797600235)</t>
+          <t>ReturnTuple(sdnn=9.422643876976842)</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.33276797600235)</t>
+          <t>ReturnTuple(sdnn=9.422643876976842)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>1237</t>
+          <t>1207</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>7.28</v>
+        <v>7.34</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.392646601272567)</t>
+          <t>ReturnTuple(sdnn=23.096816579192563)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.392646601272567)</t>
+          <t>ReturnTuple(sdnn=23.096816579192563)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.392646601272567)</t>
+          <t>ReturnTuple(sdnn=23.096816579192563)</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.392646601272567)</t>
+          <t>ReturnTuple(sdnn=23.096816579192563)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>1248</t>
+          <t>1208</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7.33</v>
+        <v>7.23</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.40831407747778)</t>
+          <t>ReturnTuple(sdnn=9.269434192764596)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.40831407747778)</t>
+          <t>ReturnTuple(sdnn=9.269434192764596)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.40831407747778)</t>
+          <t>ReturnTuple(sdnn=9.269434192764596)</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.40831407747778)</t>
+          <t>ReturnTuple(sdnn=9.269434192764596)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7.15</v>
+        <v>7.25</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.362442442066726)</t>
+          <t>ReturnTuple(sdnn=11.657425508186043)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.362442442066726)</t>
+          <t>ReturnTuple(sdnn=11.657425508186043)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.362442442066726)</t>
+          <t>ReturnTuple(sdnn=11.657425508186043)</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=30.362442442066726)</t>
+          <t>ReturnTuple(sdnn=11.657425508186043)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>1250</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3356,809 +3356,809 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060388476168477)</t>
+          <t>ReturnTuple(sdnn=13.684464313121525)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060388476168477)</t>
+          <t>ReturnTuple(sdnn=13.684464313121525)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060388476168477)</t>
+          <t>ReturnTuple(sdnn=13.684464313121525)</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.060388476168477)</t>
+          <t>ReturnTuple(sdnn=13.684464313121525)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>1255</t>
+          <t>1219</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7.22</v>
+        <v>7.15</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.988561089257908)</t>
+          <t>ReturnTuple(sdnn=19.04249062772611)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.988561089257908)</t>
+          <t>ReturnTuple(sdnn=19.04249062772611)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.988561089257908)</t>
+          <t>ReturnTuple(sdnn=19.04249062772611)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.988561089257908)</t>
+          <t>ReturnTuple(sdnn=19.04249062772611)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1221</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7.32</v>
+        <v>7.35</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.96775351651676)</t>
+          <t>ReturnTuple(sdnn=11.207897989928883)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.96775351651676)</t>
+          <t>ReturnTuple(sdnn=11.207897989928883)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.96775351651676)</t>
+          <t>ReturnTuple(sdnn=11.207897989928883)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.96775351651676)</t>
+          <t>ReturnTuple(sdnn=11.207897989928883)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>1257</t>
+          <t>1222</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>7.28</v>
+        <v>7.32</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.667604714500303)</t>
+          <t>ReturnTuple(sdnn=13.522067569982733)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.667604714500303)</t>
+          <t>ReturnTuple(sdnn=13.522067569982733)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.667604714500303)</t>
+          <t>ReturnTuple(sdnn=13.522067569982733)</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.667604714500303)</t>
+          <t>ReturnTuple(sdnn=13.522067569982733)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>1259</t>
+          <t>1223</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>7.32</v>
+        <v>7.37</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.02763124811553)</t>
+          <t>ReturnTuple(sdnn=10.514382837397338)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.02763124811553)</t>
+          <t>ReturnTuple(sdnn=10.514382837397338)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.02763124811553)</t>
+          <t>ReturnTuple(sdnn=10.514382837397338)</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.02763124811553)</t>
+          <t>ReturnTuple(sdnn=10.514382837397338)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>1263</t>
+          <t>1224</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>7.21</v>
+        <v>7.33</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.407514494374634)</t>
+          <t>ReturnTuple(sdnn=13.537721367151049)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.407514494374634)</t>
+          <t>ReturnTuple(sdnn=13.537721367151049)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.407514494374634)</t>
+          <t>ReturnTuple(sdnn=13.537721367151049)</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.407514494374634)</t>
+          <t>ReturnTuple(sdnn=13.537721367151049)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>7.35</v>
+        <v>7.42</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08137171643107)</t>
+          <t>ReturnTuple(sdnn=12.049090518208354)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08137171643107)</t>
+          <t>ReturnTuple(sdnn=12.049090518208354)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08137171643107)</t>
+          <t>ReturnTuple(sdnn=12.049090518208354)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.08137171643107)</t>
+          <t>ReturnTuple(sdnn=12.049090518208354)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>1265</t>
+          <t>1227</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>7.21</v>
+        <v>7.31</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.034063473917588)</t>
+          <t>ReturnTuple(sdnn=12.80779714551444)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.034063473917588)</t>
+          <t>ReturnTuple(sdnn=12.80779714551444)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.034063473917588)</t>
+          <t>ReturnTuple(sdnn=12.80779714551444)</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.034063473917588)</t>
+          <t>ReturnTuple(sdnn=12.80779714551444)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>1269</t>
+          <t>1230</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>7.32</v>
+        <v>7.37</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.354760863534466)</t>
+          <t>ReturnTuple(sdnn=12.587468268319324)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.354760863534466)</t>
+          <t>ReturnTuple(sdnn=12.587468268319324)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.354760863534466)</t>
+          <t>ReturnTuple(sdnn=12.587468268319324)</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.354760863534466)</t>
+          <t>ReturnTuple(sdnn=12.587468268319324)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>7.31</v>
+        <v>7.23</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.366198136402677)</t>
+          <t>ReturnTuple(sdnn=20.91982679296057)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.366198136402677)</t>
+          <t>ReturnTuple(sdnn=20.91982679296057)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.366198136402677)</t>
+          <t>ReturnTuple(sdnn=20.91982679296057)</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.366198136402677)</t>
+          <t>ReturnTuple(sdnn=20.91982679296057)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>1272</t>
+          <t>1233</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>7.24</v>
+        <v>7.36</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.683424525433335)</t>
+          <t>ReturnTuple(sdnn=12.305445323845182)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.683424525433335)</t>
+          <t>ReturnTuple(sdnn=12.305445323845182)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.683424525433335)</t>
+          <t>ReturnTuple(sdnn=12.305445323845182)</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.683424525433335)</t>
+          <t>ReturnTuple(sdnn=12.305445323845182)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>1274</t>
+          <t>1234</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>7.15</v>
+        <v>7.29</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.831555282620396)</t>
+          <t>ReturnTuple(sdnn=21.174395718545952)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.831555282620396)</t>
+          <t>ReturnTuple(sdnn=21.174395718545952)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.831555282620396)</t>
+          <t>ReturnTuple(sdnn=21.174395718545952)</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.831555282620396)</t>
+          <t>ReturnTuple(sdnn=21.174395718545952)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>1275</t>
+          <t>1237</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>7.2</v>
+        <v>7.28</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.19447302271281)</t>
+          <t>ReturnTuple(sdnn=15.297721658695387)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.19447302271281)</t>
+          <t>ReturnTuple(sdnn=15.297721658695387)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.19447302271281)</t>
+          <t>ReturnTuple(sdnn=15.297721658695387)</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.19447302271281)</t>
+          <t>ReturnTuple(sdnn=15.297721658695387)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>1276</t>
+          <t>1239</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>7.32</v>
+        <v>7.12</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.42322083154717)</t>
+          <t>ReturnTuple(sdnn=18.944578046097316)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.42322083154717)</t>
+          <t>ReturnTuple(sdnn=18.944578046097316)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.42322083154717)</t>
+          <t>ReturnTuple(sdnn=18.944578046097316)</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.42322083154717)</t>
+          <t>ReturnTuple(sdnn=18.944578046097316)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>1248</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>7.31</v>
+        <v>7.33</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.7968507975557)</t>
+          <t>ReturnTuple(sdnn=15.284164396501472)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.7968507975557)</t>
+          <t>ReturnTuple(sdnn=15.284164396501472)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.7968507975557)</t>
+          <t>ReturnTuple(sdnn=15.284164396501472)</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.7968507975557)</t>
+          <t>ReturnTuple(sdnn=15.284164396501472)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>1283</t>
+          <t>1249</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>7.2</v>
+        <v>7.15</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.328829368853683)</t>
+          <t>ReturnTuple(sdnn=29.702429960763936)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.328829368853683)</t>
+          <t>ReturnTuple(sdnn=29.702429960763936)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.328829368853683)</t>
+          <t>ReturnTuple(sdnn=29.702429960763936)</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.328829368853683)</t>
+          <t>ReturnTuple(sdnn=29.702429960763936)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>1250</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>7.2</v>
+        <v>7.28</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.486337677631818)</t>
+          <t>ReturnTuple(sdnn=12.404193976827944)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.486337677631818)</t>
+          <t>ReturnTuple(sdnn=12.404193976827944)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.486337677631818)</t>
+          <t>ReturnTuple(sdnn=12.404193976827944)</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.486337677631818)</t>
+          <t>ReturnTuple(sdnn=12.404193976827944)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>1290</t>
+          <t>1255</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>7.36</v>
+        <v>7.22</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.725398177036539)</t>
+          <t>ReturnTuple(sdnn=11.494131549094133)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.725398177036539)</t>
+          <t>ReturnTuple(sdnn=11.494131549094133)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.725398177036539)</t>
+          <t>ReturnTuple(sdnn=11.494131549094133)</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.725398177036539)</t>
+          <t>ReturnTuple(sdnn=11.494131549094133)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.88826917503962)</t>
+          <t>ReturnTuple(sdnn=15.177541488350961)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.88826917503962)</t>
+          <t>ReturnTuple(sdnn=15.177541488350961)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.88826917503962)</t>
+          <t>ReturnTuple(sdnn=15.177541488350961)</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.88826917503962)</t>
+          <t>ReturnTuple(sdnn=15.177541488350961)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>1298</t>
+          <t>1257</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>7.26</v>
+        <v>7.28</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.375376682062022)</t>
+          <t>ReturnTuple(sdnn=7.085140442660586)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.375376682062022)</t>
+          <t>ReturnTuple(sdnn=7.085140442660586)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.375376682062022)</t>
+          <t>ReturnTuple(sdnn=7.085140442660586)</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.375376682062022)</t>
+          <t>ReturnTuple(sdnn=7.085140442660586)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1259</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>7.22</v>
+        <v>7.32</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.790131035694813)</t>
+          <t>ReturnTuple(sdnn=11.314709953059449)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.790131035694813)</t>
+          <t>ReturnTuple(sdnn=11.314709953059449)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.790131035694813)</t>
+          <t>ReturnTuple(sdnn=11.314709953059449)</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.790131035694813)</t>
+          <t>ReturnTuple(sdnn=11.314709953059449)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>7.24</v>
+        <v>7.39</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.252130499301426)</t>
+          <t>ReturnTuple(sdnn=16.60186135583415)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.252130499301426)</t>
+          <t>ReturnTuple(sdnn=16.60186135583415)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.252130499301426)</t>
+          <t>ReturnTuple(sdnn=16.60186135583415)</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.252130499301426)</t>
+          <t>ReturnTuple(sdnn=16.60186135583415)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>1303</t>
+          <t>1263</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>7.14</v>
+        <v>7.21</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.935048144901664)</t>
+          <t>ReturnTuple(sdnn=16.672984365745673)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.935048144901664)</t>
+          <t>ReturnTuple(sdnn=16.672984365745673)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.935048144901664)</t>
+          <t>ReturnTuple(sdnn=16.672984365745673)</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.935048144901664)</t>
+          <t>ReturnTuple(sdnn=16.672984365745673)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>1306</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7.39</v>
+        <v>7.35</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.76914693351056)</t>
+          <t>ReturnTuple(sdnn=14.445689401201648)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.76914693351056)</t>
+          <t>ReturnTuple(sdnn=14.445689401201648)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.76914693351056)</t>
+          <t>ReturnTuple(sdnn=14.445689401201648)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.76914693351056)</t>
+          <t>ReturnTuple(sdnn=14.445689401201648)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>1307</t>
+          <t>1265</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>7.26</v>
+        <v>7.21</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.515613917559527)</t>
+          <t>ReturnTuple(sdnn=14.89881330299615)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.515613917559527)</t>
+          <t>ReturnTuple(sdnn=14.89881330299615)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.515613917559527)</t>
+          <t>ReturnTuple(sdnn=14.89881330299615)</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.515613917559527)</t>
+          <t>ReturnTuple(sdnn=14.89881330299615)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1269</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>7.16</v>
+        <v>7.32</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.739610470700953)</t>
+          <t>ReturnTuple(sdnn=19.680239810449372)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.739610470700953)</t>
+          <t>ReturnTuple(sdnn=19.680239810449372)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.739610470700953)</t>
+          <t>ReturnTuple(sdnn=19.680239810449372)</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.739610470700953)</t>
+          <t>ReturnTuple(sdnn=19.680239810449372)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>1312</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>7.33</v>
+        <v>7.31</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.895954633193973)</t>
+          <t>ReturnTuple(sdnn=10.544164004671325)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.895954633193973)</t>
+          <t>ReturnTuple(sdnn=10.544164004671325)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.895954633193973)</t>
+          <t>ReturnTuple(sdnn=10.544164004671325)</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.895954633193973)</t>
+          <t>ReturnTuple(sdnn=10.544164004671325)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>1272</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4166,929 +4166,929 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.274917973410293)</t>
+          <t>ReturnTuple(sdnn=18.303392093753672)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.274917973410293)</t>
+          <t>ReturnTuple(sdnn=18.303392093753672)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.274917973410293)</t>
+          <t>ReturnTuple(sdnn=18.303392093753672)</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=27.274917973410293)</t>
+          <t>ReturnTuple(sdnn=18.303392093753672)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>1274</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7.23</v>
+        <v>7.15</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.128732038812142)</t>
+          <t>ReturnTuple(sdnn=22.52152895976723)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.128732038812142)</t>
+          <t>ReturnTuple(sdnn=22.52152895976723)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.128732038812142)</t>
+          <t>ReturnTuple(sdnn=22.52152895976723)</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.128732038812142)</t>
+          <t>ReturnTuple(sdnn=22.52152895976723)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>1319</t>
+          <t>1275</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>7.32</v>
+        <v>7.2</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.646258839415076)</t>
+          <t>ReturnTuple(sdnn=19.56359180258046)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.646258839415076)</t>
+          <t>ReturnTuple(sdnn=19.56359180258046)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.646258839415076)</t>
+          <t>ReturnTuple(sdnn=19.56359180258046)</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.646258839415076)</t>
+          <t>ReturnTuple(sdnn=19.56359180258046)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>1322</t>
+          <t>1276</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>7.37</v>
+        <v>7.32</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.251348572114615)</t>
+          <t>ReturnTuple(sdnn=16.764805582336102)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.251348572114615)</t>
+          <t>ReturnTuple(sdnn=16.764805582336102)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.251348572114615)</t>
+          <t>ReturnTuple(sdnn=16.764805582336102)</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.251348572114615)</t>
+          <t>ReturnTuple(sdnn=16.764805582336102)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>1277</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>7.35</v>
+        <v>7.34</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.110089699826066)</t>
+          <t>ReturnTuple(sdnn=15.191942444881443)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.110089699826066)</t>
+          <t>ReturnTuple(sdnn=15.191942444881443)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.110089699826066)</t>
+          <t>ReturnTuple(sdnn=15.191942444881443)</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.110089699826066)</t>
+          <t>ReturnTuple(sdnn=15.191942444881443)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7.29</v>
+        <v>7.31</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.801551634729403)</t>
+          <t>ReturnTuple(sdnn=19.788281176280368)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.801551634729403)</t>
+          <t>ReturnTuple(sdnn=19.788281176280368)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.801551634729403)</t>
+          <t>ReturnTuple(sdnn=19.788281176280368)</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.801551634729403)</t>
+          <t>ReturnTuple(sdnn=19.788281176280368)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>1326</t>
+          <t>1283</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>7.29</v>
+        <v>7.2</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.169499796002743)</t>
+          <t>ReturnTuple(sdnn=8.787758136755276)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.169499796002743)</t>
+          <t>ReturnTuple(sdnn=8.787758136755276)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.169499796002743)</t>
+          <t>ReturnTuple(sdnn=8.787758136755276)</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=23.169499796002743)</t>
+          <t>ReturnTuple(sdnn=8.787758136755276)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>1327</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>7.31</v>
+        <v>7.14</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.025592893480209)</t>
+          <t>ReturnTuple(sdnn=29.632012449436612)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.025592893480209)</t>
+          <t>ReturnTuple(sdnn=29.632012449436612)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.025592893480209)</t>
+          <t>ReturnTuple(sdnn=29.632012449436612)</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.025592893480209)</t>
+          <t>ReturnTuple(sdnn=29.632012449436612)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>7.19</v>
+        <v>7.2</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.864485963939103)</t>
+          <t>ReturnTuple(sdnn=12.62480554865068)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.864485963939103)</t>
+          <t>ReturnTuple(sdnn=12.62480554865068)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.864485963939103)</t>
+          <t>ReturnTuple(sdnn=12.62480554865068)</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.864485963939103)</t>
+          <t>ReturnTuple(sdnn=12.62480554865068)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>1331</t>
+          <t>1290</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>7.41</v>
+        <v>7.36</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.983913891300285)</t>
+          <t>ReturnTuple(sdnn=12.818329862323472)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.983913891300285)</t>
+          <t>ReturnTuple(sdnn=12.818329862323472)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.983913891300285)</t>
+          <t>ReturnTuple(sdnn=12.818329862323472)</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.983913891300285)</t>
+          <t>ReturnTuple(sdnn=12.818329862323472)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>1334</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>7.32</v>
+        <v>7.3</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.286471164405103)</t>
+          <t>ReturnTuple(sdnn=19.202390902713066)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.286471164405103)</t>
+          <t>ReturnTuple(sdnn=19.202390902713066)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.286471164405103)</t>
+          <t>ReturnTuple(sdnn=19.202390902713066)</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.286471164405103)</t>
+          <t>ReturnTuple(sdnn=19.202390902713066)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>1339</t>
+          <t>1298</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>7.31</v>
+        <v>7.26</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.435397187241865)</t>
+          <t>ReturnTuple(sdnn=10.211145614855926)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.435397187241865)</t>
+          <t>ReturnTuple(sdnn=10.211145614855926)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.435397187241865)</t>
+          <t>ReturnTuple(sdnn=10.211145614855926)</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.435397187241865)</t>
+          <t>ReturnTuple(sdnn=10.211145614855926)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>7.32</v>
+        <v>7.22</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.227257531322856)</t>
+          <t>ReturnTuple(sdnn=11.752495433121867)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.227257531322856)</t>
+          <t>ReturnTuple(sdnn=11.752495433121867)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.227257531322856)</t>
+          <t>ReturnTuple(sdnn=11.752495433121867)</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.227257531322856)</t>
+          <t>ReturnTuple(sdnn=11.752495433121867)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>1341</t>
+          <t>1302</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7.14</v>
+        <v>7.24</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.471865701633575)</t>
+          <t>ReturnTuple(sdnn=13.622643027807065)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.471865701633575)</t>
+          <t>ReturnTuple(sdnn=13.622643027807065)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.471865701633575)</t>
+          <t>ReturnTuple(sdnn=13.622643027807065)</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.471865701633575)</t>
+          <t>ReturnTuple(sdnn=13.622643027807065)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>1343</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7.27</v>
+        <v>7.14</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.393206510306234)</t>
+          <t>ReturnTuple(sdnn=18.002298450512093)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.393206510306234)</t>
+          <t>ReturnTuple(sdnn=18.002298450512093)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.393206510306234)</t>
+          <t>ReturnTuple(sdnn=18.002298450512093)</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.393206510306234)</t>
+          <t>ReturnTuple(sdnn=18.002298450512093)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>1346</t>
+          <t>1306</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>7.31</v>
+        <v>7.39</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.851587082292689)</t>
+          <t>ReturnTuple(sdnn=16.26269049589292)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.851587082292689)</t>
+          <t>ReturnTuple(sdnn=16.26269049589292)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.851587082292689)</t>
+          <t>ReturnTuple(sdnn=16.26269049589292)</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.851587082292689)</t>
+          <t>ReturnTuple(sdnn=16.26269049589292)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>1347</t>
+          <t>1307</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>7.14</v>
+        <v>7.26</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.736805421168658)</t>
+          <t>ReturnTuple(sdnn=18.985457755478816)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.736805421168658)</t>
+          <t>ReturnTuple(sdnn=18.985457755478816)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.736805421168658)</t>
+          <t>ReturnTuple(sdnn=18.985457755478816)</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.736805421168658)</t>
+          <t>ReturnTuple(sdnn=18.985457755478816)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1308</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>7.11</v>
+        <v>7.16</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.672019624932744)</t>
+          <t>ReturnTuple(sdnn=12.498546269865379)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.672019624932744)</t>
+          <t>ReturnTuple(sdnn=12.498546269865379)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.672019624932744)</t>
+          <t>ReturnTuple(sdnn=12.498546269865379)</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.672019624932744)</t>
+          <t>ReturnTuple(sdnn=12.498546269865379)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>1309</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>7.32</v>
+        <v>7.33</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.245764463182612)</t>
+          <t>ReturnTuple(sdnn=9.684843973251565)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.245764463182612)</t>
+          <t>ReturnTuple(sdnn=9.684843973251565)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.245764463182612)</t>
+          <t>ReturnTuple(sdnn=9.684843973251565)</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=5.245764463182612)</t>
+          <t>ReturnTuple(sdnn=9.684843973251565)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1312</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7.18</v>
+        <v>7.33</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.623993380235632)</t>
+          <t>ReturnTuple(sdnn=12.030021902906258)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.623993380235632)</t>
+          <t>ReturnTuple(sdnn=12.030021902906258)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.623993380235632)</t>
+          <t>ReturnTuple(sdnn=12.030021902906258)</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.623993380235632)</t>
+          <t>ReturnTuple(sdnn=12.030021902906258)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>1352</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>7.18</v>
+        <v>7.34</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.300314718660058)</t>
+          <t>ReturnTuple(sdnn=16.663074752707242)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.300314718660058)</t>
+          <t>ReturnTuple(sdnn=16.663074752707242)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.300314718660058)</t>
+          <t>ReturnTuple(sdnn=16.663074752707242)</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.300314718660058)</t>
+          <t>ReturnTuple(sdnn=16.663074752707242)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>7.27</v>
+        <v>7.24</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.05346200095526)</t>
+          <t>ReturnTuple(sdnn=20.393568917960256)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.05346200095526)</t>
+          <t>ReturnTuple(sdnn=20.393568917960256)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.05346200095526)</t>
+          <t>ReturnTuple(sdnn=20.393568917960256)</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.05346200095526)</t>
+          <t>ReturnTuple(sdnn=20.393568917960256)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>1363</t>
+          <t>1317</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>7.25</v>
+        <v>7.23</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.93877479925858)</t>
+          <t>ReturnTuple(sdnn=14.457090582141818)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.93877479925858)</t>
+          <t>ReturnTuple(sdnn=14.457090582141818)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.93877479925858)</t>
+          <t>ReturnTuple(sdnn=14.457090582141818)</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.93877479925858)</t>
+          <t>ReturnTuple(sdnn=14.457090582141818)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>1366</t>
+          <t>1319</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>7.3</v>
+        <v>7.32</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.146494919551333)</t>
+          <t>ReturnTuple(sdnn=12.911720369106364)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.146494919551333)</t>
+          <t>ReturnTuple(sdnn=12.911720369106364)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.146494919551333)</t>
+          <t>ReturnTuple(sdnn=12.911720369106364)</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.146494919551333)</t>
+          <t>ReturnTuple(sdnn=12.911720369106364)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>1373</t>
+          <t>1322</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>7.03</v>
+        <v>7.37</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.270463287173705)</t>
+          <t>ReturnTuple(sdnn=9.854309965991483)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.270463287173705)</t>
+          <t>ReturnTuple(sdnn=9.854309965991483)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.270463287173705)</t>
+          <t>ReturnTuple(sdnn=9.854309965991483)</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.270463287173705)</t>
+          <t>ReturnTuple(sdnn=9.854309965991483)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.922767732850192)</t>
+          <t>ReturnTuple(sdnn=15.058576734983005)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.922767732850192)</t>
+          <t>ReturnTuple(sdnn=15.058576734983005)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.922767732850192)</t>
+          <t>ReturnTuple(sdnn=15.058576734983005)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.922767732850192)</t>
+          <t>ReturnTuple(sdnn=15.058576734983005)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>1376</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>7.16</v>
+        <v>7.29</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.046276445026646)</t>
+          <t>ReturnTuple(sdnn=16.617575581297803)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.046276445026646)</t>
+          <t>ReturnTuple(sdnn=16.617575581297803)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.046276445026646)</t>
+          <t>ReturnTuple(sdnn=16.617575581297803)</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.046276445026646)</t>
+          <t>ReturnTuple(sdnn=16.617575581297803)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>1377</t>
+          <t>1326</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7.26</v>
+        <v>7.29</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.55176408108399)</t>
+          <t>ReturnTuple(sdnn=22.78016709467597)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.55176408108399)</t>
+          <t>ReturnTuple(sdnn=22.78016709467597)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.55176408108399)</t>
+          <t>ReturnTuple(sdnn=22.78016709467597)</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.55176408108399)</t>
+          <t>ReturnTuple(sdnn=22.78016709467597)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>1379</t>
+          <t>1327</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>7.27</v>
+        <v>7.31</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.812081098587331)</t>
+          <t>ReturnTuple(sdnn=7.0253552093282785)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.812081098587331)</t>
+          <t>ReturnTuple(sdnn=7.0253552093282785)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.812081098587331)</t>
+          <t>ReturnTuple(sdnn=7.0253552093282785)</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.812081098587331)</t>
+          <t>ReturnTuple(sdnn=7.0253552093282785)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>1381</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7.21</v>
+        <v>7.19</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.54939604425609)</t>
+          <t>ReturnTuple(sdnn=15.532960451535521)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.54939604425609)</t>
+          <t>ReturnTuple(sdnn=15.532960451535521)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.54939604425609)</t>
+          <t>ReturnTuple(sdnn=15.532960451535521)</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.54939604425609)</t>
+          <t>ReturnTuple(sdnn=15.532960451535521)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>1382</t>
+          <t>1331</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>7.13</v>
+        <v>7.41</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.631863405234213)</t>
+          <t>ReturnTuple(sdnn=12.980948202930522)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.631863405234213)</t>
+          <t>ReturnTuple(sdnn=12.980948202930522)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.631863405234213)</t>
+          <t>ReturnTuple(sdnn=12.980948202930522)</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.631863405234213)</t>
+          <t>ReturnTuple(sdnn=12.980948202930522)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>1388</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -5096,1349 +5096,1349 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.931245083903075)</t>
+          <t>ReturnTuple(sdnn=9.636668514865544)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.931245083903075)</t>
+          <t>ReturnTuple(sdnn=9.636668514865544)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.931245083903075)</t>
+          <t>ReturnTuple(sdnn=9.636668514865544)</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.931245083903075)</t>
+          <t>ReturnTuple(sdnn=9.636668514865544)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>1389</t>
+          <t>1336</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.16141535061375)</t>
+          <t>ReturnTuple(sdnn=15.777078106452462)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.16141535061375)</t>
+          <t>ReturnTuple(sdnn=15.777078106452462)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.16141535061375)</t>
+          <t>ReturnTuple(sdnn=15.777078106452462)</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.16141535061375)</t>
+          <t>ReturnTuple(sdnn=15.777078106452462)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>1390</t>
+          <t>1339</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7.27</v>
+        <v>7.31</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.332588623575099)</t>
+          <t>ReturnTuple(sdnn=6.443486383595229)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.332588623575099)</t>
+          <t>ReturnTuple(sdnn=6.443486383595229)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.332588623575099)</t>
+          <t>ReturnTuple(sdnn=6.443486383595229)</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.332588623575099)</t>
+          <t>ReturnTuple(sdnn=6.443486383595229)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>1393</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>7.36</v>
+        <v>7.32</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.75395945318718)</t>
+          <t>ReturnTuple(sdnn=17.515749641650405)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.75395945318718)</t>
+          <t>ReturnTuple(sdnn=17.515749641650405)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.75395945318718)</t>
+          <t>ReturnTuple(sdnn=17.515749641650405)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.75395945318718)</t>
+          <t>ReturnTuple(sdnn=17.515749641650405)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>1395</t>
+          <t>1341</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>7.32</v>
+        <v>7.14</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.95324510027871)</t>
+          <t>ReturnTuple(sdnn=17.226458904554963)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.95324510027871)</t>
+          <t>ReturnTuple(sdnn=17.226458904554963)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.95324510027871)</t>
+          <t>ReturnTuple(sdnn=17.226458904554963)</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.95324510027871)</t>
+          <t>ReturnTuple(sdnn=17.226458904554963)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>1396</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>7.29</v>
+        <v>7.27</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.705806523794768)</t>
+          <t>ReturnTuple(sdnn=7.197324031972362)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.705806523794768)</t>
+          <t>ReturnTuple(sdnn=7.197324031972362)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.705806523794768)</t>
+          <t>ReturnTuple(sdnn=7.197324031972362)</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=10.705806523794768)</t>
+          <t>ReturnTuple(sdnn=7.197324031972362)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>1397</t>
+          <t>1346</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7.24</v>
+        <v>7.31</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.224109839499672)</t>
+          <t>ReturnTuple(sdnn=12.203053048548647)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.224109839499672)</t>
+          <t>ReturnTuple(sdnn=12.203053048548647)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.224109839499672)</t>
+          <t>ReturnTuple(sdnn=12.203053048548647)</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.224109839499672)</t>
+          <t>ReturnTuple(sdnn=12.203053048548647)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1347</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7.13</v>
+        <v>7.14</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.68102733980723)</t>
+          <t>ReturnTuple(sdnn=16.952802960629032)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.68102733980723)</t>
+          <t>ReturnTuple(sdnn=16.952802960629032)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.68102733980723)</t>
+          <t>ReturnTuple(sdnn=16.952802960629032)</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.68102733980723)</t>
+          <t>ReturnTuple(sdnn=16.952802960629032)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>1410</t>
+          <t>1348</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7.13</v>
+        <v>7.11</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.939383552260605)</t>
+          <t>ReturnTuple(sdnn=16.88657329367244)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.939383552260605)</t>
+          <t>ReturnTuple(sdnn=16.88657329367244)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.939383552260605)</t>
+          <t>ReturnTuple(sdnn=16.88657329367244)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.939383552260605)</t>
+          <t>ReturnTuple(sdnn=16.88657329367244)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>7.29</v>
+        <v>7.32</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.502238586207692)</t>
+          <t>ReturnTuple(sdnn=4.209768896641084)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.502238586207692)</t>
+          <t>ReturnTuple(sdnn=4.209768896641084)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.502238586207692)</t>
+          <t>ReturnTuple(sdnn=4.209768896641084)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.502238586207692)</t>
+          <t>ReturnTuple(sdnn=4.209768896641084)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>1416</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>7.19</v>
+        <v>7.18</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.990593196360528)</t>
+          <t>ReturnTuple(sdnn=15.825790823210301)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.990593196360528)</t>
+          <t>ReturnTuple(sdnn=15.825790823210301)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.990593196360528)</t>
+          <t>ReturnTuple(sdnn=15.825790823210301)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.990593196360528)</t>
+          <t>ReturnTuple(sdnn=15.825790823210301)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>6.98</v>
+        <v>7.18</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.085277348328372)</t>
+          <t>ReturnTuple(sdnn=18.924764374596815)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.085277348328372)</t>
+          <t>ReturnTuple(sdnn=18.924764374596815)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.085277348328372)</t>
+          <t>ReturnTuple(sdnn=18.924764374596815)</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.085277348328372)</t>
+          <t>ReturnTuple(sdnn=18.924764374596815)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>7.02</v>
+        <v>7.28</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.817074908827504)</t>
+          <t>ReturnTuple(sdnn=12.025738677033125)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.817074908827504)</t>
+          <t>ReturnTuple(sdnn=12.025738677033125)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.817074908827504)</t>
+          <t>ReturnTuple(sdnn=12.025738677033125)</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.817074908827504)</t>
+          <t>ReturnTuple(sdnn=12.025738677033125)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>1420</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.32827707776698)</t>
+          <t>ReturnTuple(sdnn=15.019031198906884)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.32827707776698)</t>
+          <t>ReturnTuple(sdnn=15.019031198906884)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.32827707776698)</t>
+          <t>ReturnTuple(sdnn=15.019031198906884)</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.32827707776698)</t>
+          <t>ReturnTuple(sdnn=15.019031198906884)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1363</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>7.29</v>
+        <v>7.25</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.448760440732348)</t>
+          <t>ReturnTuple(sdnn=11.604443531586659)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.448760440732348)</t>
+          <t>ReturnTuple(sdnn=11.604443531586659)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.448760440732348)</t>
+          <t>ReturnTuple(sdnn=11.604443531586659)</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.448760440732348)</t>
+          <t>ReturnTuple(sdnn=11.604443531586659)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>1364</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>7.18</v>
+        <v>7.32</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.009473777284136)</t>
+          <t>ReturnTuple(sdnn=14.949024634821445)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.009473777284136)</t>
+          <t>ReturnTuple(sdnn=14.949024634821445)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.009473777284136)</t>
+          <t>ReturnTuple(sdnn=14.949024634821445)</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.009473777284136)</t>
+          <t>ReturnTuple(sdnn=14.949024634821445)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>1426</t>
+          <t>1366</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>7.13</v>
+        <v>7.3</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984953861178811)</t>
+          <t>ReturnTuple(sdnn=13.75081471641182)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984953861178811)</t>
+          <t>ReturnTuple(sdnn=13.75081471641182)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984953861178811)</t>
+          <t>ReturnTuple(sdnn=13.75081471641182)</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.984953861178811)</t>
+          <t>ReturnTuple(sdnn=13.75081471641182)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1373</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>7.24</v>
+        <v>7.03</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.359186499938707)</t>
+          <t>ReturnTuple(sdnn=17.348472217647537)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.359186499938707)</t>
+          <t>ReturnTuple(sdnn=17.348472217647537)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.359186499938707)</t>
+          <t>ReturnTuple(sdnn=17.348472217647537)</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=13.359186499938707)</t>
+          <t>ReturnTuple(sdnn=17.348472217647537)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>7.16</v>
+        <v>7.19</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.08099464628871)</t>
+          <t>ReturnTuple(sdnn=17.794249148529087)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.08099464628871)</t>
+          <t>ReturnTuple(sdnn=17.794249148529087)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.08099464628871)</t>
+          <t>ReturnTuple(sdnn=17.794249148529087)</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.08099464628871)</t>
+          <t>ReturnTuple(sdnn=17.794249148529087)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>7.17</v>
+        <v>7.25</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.237375859665423)</t>
+          <t>ReturnTuple(sdnn=9.566950422057792)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.237375859665423)</t>
+          <t>ReturnTuple(sdnn=9.566950422057792)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.237375859665423)</t>
+          <t>ReturnTuple(sdnn=9.566950422057792)</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.237375859665423)</t>
+          <t>ReturnTuple(sdnn=9.566950422057792)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>1438</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>7.14</v>
+        <v>7.26</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.301212627364787)</t>
+          <t>ReturnTuple(sdnn=13.52264270383446)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.301212627364787)</t>
+          <t>ReturnTuple(sdnn=13.52264270383446)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.301212627364787)</t>
+          <t>ReturnTuple(sdnn=13.52264270383446)</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.301212627364787)</t>
+          <t>ReturnTuple(sdnn=13.52264270383446)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.956140211314045)</t>
+          <t>ReturnTuple(sdnn=14.440668238782479)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.956140211314045)</t>
+          <t>ReturnTuple(sdnn=14.440668238782479)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.956140211314045)</t>
+          <t>ReturnTuple(sdnn=14.440668238782479)</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=8.956140211314045)</t>
+          <t>ReturnTuple(sdnn=14.440668238782479)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1381</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>7.23</v>
+        <v>7.21</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.367023812701937)</t>
+          <t>ReturnTuple(sdnn=9.173095680119964)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.367023812701937)</t>
+          <t>ReturnTuple(sdnn=9.173095680119964)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.367023812701937)</t>
+          <t>ReturnTuple(sdnn=9.173095680119964)</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.367023812701937)</t>
+          <t>ReturnTuple(sdnn=9.173095680119964)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>1442</t>
+          <t>1382</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>7.28</v>
+        <v>7.13</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.178635706409526)</t>
+          <t>ReturnTuple(sdnn=18.99777255349828)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.178635706409526)</t>
+          <t>ReturnTuple(sdnn=18.99777255349828)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.178635706409526)</t>
+          <t>ReturnTuple(sdnn=18.99777255349828)</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=7.178635706409526)</t>
+          <t>ReturnTuple(sdnn=18.99777255349828)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1388</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7.36</v>
+        <v>7.32</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.412857073861595)</t>
+          <t>ReturnTuple(sdnn=11.242624139946953)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.412857073861595)</t>
+          <t>ReturnTuple(sdnn=11.242624139946953)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.412857073861595)</t>
+          <t>ReturnTuple(sdnn=11.242624139946953)</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.412857073861595)</t>
+          <t>ReturnTuple(sdnn=11.242624139946953)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1389</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7.36</v>
+        <v>7.24</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.603376085968954)</t>
+          <t>ReturnTuple(sdnn=16.45114238095081)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.603376085968954)</t>
+          <t>ReturnTuple(sdnn=16.45114238095081)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.603376085968954)</t>
+          <t>ReturnTuple(sdnn=16.45114238095081)</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.603376085968954)</t>
+          <t>ReturnTuple(sdnn=16.45114238095081)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>1453</t>
+          <t>1390</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>7.25</v>
+        <v>7.27</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.032552715357006)</t>
+          <t>ReturnTuple(sdnn=10.436618435425446)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.032552715357006)</t>
+          <t>ReturnTuple(sdnn=10.436618435425446)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.032552715357006)</t>
+          <t>ReturnTuple(sdnn=10.436618435425446)</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.032552715357006)</t>
+          <t>ReturnTuple(sdnn=10.436618435425446)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>1393</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>7.23</v>
+        <v>7.36</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95834702606759)</t>
+          <t>ReturnTuple(sdnn=13.287714925735251)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95834702606759)</t>
+          <t>ReturnTuple(sdnn=13.287714925735251)</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95834702606759)</t>
+          <t>ReturnTuple(sdnn=13.287714925735251)</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.95834702606759)</t>
+          <t>ReturnTuple(sdnn=13.287714925735251)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>1395</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>7.18</v>
+        <v>7.32</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023519151715782)</t>
+          <t>ReturnTuple(sdnn=17.621296171043834)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023519151715782)</t>
+          <t>ReturnTuple(sdnn=17.621296171043834)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023519151715782)</t>
+          <t>ReturnTuple(sdnn=17.621296171043834)</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023519151715782)</t>
+          <t>ReturnTuple(sdnn=17.621296171043834)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>1459</t>
+          <t>1396</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>7.28</v>
+        <v>7.29</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.32355684071665)</t>
+          <t>ReturnTuple(sdnn=9.695366250559191)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.32355684071665)</t>
+          <t>ReturnTuple(sdnn=9.695366250559191)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.32355684071665)</t>
+          <t>ReturnTuple(sdnn=9.695366250559191)</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=17.32355684071665)</t>
+          <t>ReturnTuple(sdnn=9.695366250559191)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>1460</t>
+          <t>1397</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>7.26</v>
+        <v>7.24</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.051639526261217)</t>
+          <t>ReturnTuple(sdnn=11.657649362272428)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.051639526261217)</t>
+          <t>ReturnTuple(sdnn=11.657649362272428)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.051639526261217)</t>
+          <t>ReturnTuple(sdnn=11.657649362272428)</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.051639526261217)</t>
+          <t>ReturnTuple(sdnn=11.657649362272428)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>1462</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7.25</v>
+        <v>7.13</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023418147136757)</t>
+          <t>ReturnTuple(sdnn=10.714912244306166)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023418147136757)</t>
+          <t>ReturnTuple(sdnn=10.714912244306166)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023418147136757)</t>
+          <t>ReturnTuple(sdnn=10.714912244306166)</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.023418147136757)</t>
+          <t>ReturnTuple(sdnn=10.714912244306166)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>7.26</v>
+        <v>7.23</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.229917044619071)</t>
+          <t>ReturnTuple(sdnn=11.175937629624164)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.229917044619071)</t>
+          <t>ReturnTuple(sdnn=11.175937629624164)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.229917044619071)</t>
+          <t>ReturnTuple(sdnn=11.175937629624164)</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.229917044619071)</t>
+          <t>ReturnTuple(sdnn=11.175937629624164)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>1465</t>
+          <t>1410</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>7.26</v>
+        <v>7.13</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.414080383878375)</t>
+          <t>ReturnTuple(sdnn=23.356383506983075)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.414080383878375)</t>
+          <t>ReturnTuple(sdnn=23.356383506983075)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.414080383878375)</t>
+          <t>ReturnTuple(sdnn=23.356383506983075)</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.414080383878375)</t>
+          <t>ReturnTuple(sdnn=23.356383506983075)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>1466</t>
+          <t>1411</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>7.1</v>
+        <v>7.32</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.838560823833756)</t>
+          <t>ReturnTuple(sdnn=10.496113670871088)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.838560823833756)</t>
+          <t>ReturnTuple(sdnn=10.496113670871088)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.838560823833756)</t>
+          <t>ReturnTuple(sdnn=10.496113670871088)</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=24.838560823833756)</t>
+          <t>ReturnTuple(sdnn=10.496113670871088)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>7.11</v>
+        <v>7.29</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.707074814997386)</t>
+          <t>ReturnTuple(sdnn=13.219087395767787)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.707074814997386)</t>
+          <t>ReturnTuple(sdnn=13.219087395767787)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.707074814997386)</t>
+          <t>ReturnTuple(sdnn=13.219087395767787)</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=11.707074814997386)</t>
+          <t>ReturnTuple(sdnn=13.219087395767787)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>1471</t>
+          <t>1416</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>7.18</v>
+        <v>7.19</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.821856906082388)</t>
+          <t>ReturnTuple(sdnn=9.36022139666195)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.821856906082388)</t>
+          <t>ReturnTuple(sdnn=9.36022139666195)</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.821856906082388)</t>
+          <t>ReturnTuple(sdnn=9.36022139666195)</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.821856906082388)</t>
+          <t>ReturnTuple(sdnn=9.36022139666195)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1417</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>7.22</v>
+        <v>7.26</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.5364227343083)</t>
+          <t>ReturnTuple(sdnn=9.17067739406142)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.5364227343083)</t>
+          <t>ReturnTuple(sdnn=9.17067739406142)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.5364227343083)</t>
+          <t>ReturnTuple(sdnn=9.17067739406142)</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.5364227343083)</t>
+          <t>ReturnTuple(sdnn=9.17067739406142)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>7.26</v>
+        <v>6.98</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.504075818005166)</t>
+          <t>ReturnTuple(sdnn=22.948140046268986)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.504075818005166)</t>
+          <t>ReturnTuple(sdnn=22.948140046268986)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.504075818005166)</t>
+          <t>ReturnTuple(sdnn=22.948140046268986)</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.504075818005166)</t>
+          <t>ReturnTuple(sdnn=22.948140046268986)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>7.27</v>
+        <v>7.02</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.482342542259488)</t>
+          <t>ReturnTuple(sdnn=17.531592056856557)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.482342542259488)</t>
+          <t>ReturnTuple(sdnn=17.531592056856557)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.482342542259488)</t>
+          <t>ReturnTuple(sdnn=17.531592056856557)</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=14.482342542259488)</t>
+          <t>ReturnTuple(sdnn=17.531592056856557)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>1480</t>
+          <t>1420</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>7.13</v>
+        <v>7.3</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.80754083558847)</t>
+          <t>ReturnTuple(sdnn=20.246638951582998)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.80754083558847)</t>
+          <t>ReturnTuple(sdnn=20.246638951582998)</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.80754083558847)</t>
+          <t>ReturnTuple(sdnn=20.246638951582998)</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=25.80754083558847)</t>
+          <t>ReturnTuple(sdnn=20.246638951582998)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>1483</t>
+          <t>1421</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>7.25</v>
+        <v>7.29</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.726260359700671)</t>
+          <t>ReturnTuple(sdnn=11.006084161760596)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.726260359700671)</t>
+          <t>ReturnTuple(sdnn=11.006084161760596)</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.726260359700671)</t>
+          <t>ReturnTuple(sdnn=11.006084161760596)</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.726260359700671)</t>
+          <t>ReturnTuple(sdnn=11.006084161760596)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>1424</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>7.16</v>
+        <v>7.18</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.265446648308107)</t>
+          <t>ReturnTuple(sdnn=18.783931557379947)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.265446648308107)</t>
+          <t>ReturnTuple(sdnn=18.783931557379947)</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.265446648308107)</t>
+          <t>ReturnTuple(sdnn=18.783931557379947)</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=26.265446648308107)</t>
+          <t>ReturnTuple(sdnn=18.783931557379947)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>1486</t>
+          <t>1426</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>7.19</v>
+        <v>7.13</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.948174389733826)</t>
+          <t>ReturnTuple(sdnn=7.010206896298844)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.948174389733826)</t>
+          <t>ReturnTuple(sdnn=7.010206896298844)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.948174389733826)</t>
+          <t>ReturnTuple(sdnn=7.010206896298844)</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=21.948174389733826)</t>
+          <t>ReturnTuple(sdnn=7.010206896298844)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1429</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>7.16</v>
+        <v>7.24</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364539861669305)</t>
+          <t>ReturnTuple(sdnn=11.412298350426207)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364539861669305)</t>
+          <t>ReturnTuple(sdnn=11.412298350426207)</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364539861669305)</t>
+          <t>ReturnTuple(sdnn=11.412298350426207)</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=12.364539861669305)</t>
+          <t>ReturnTuple(sdnn=11.412298350426207)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>1493</t>
+          <t>1434</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -6446,232 +6446,1222 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.652088866746492)</t>
+          <t>ReturnTuple(sdnn=22.11441871244685)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.652088866746492)</t>
+          <t>ReturnTuple(sdnn=22.11441871244685)</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.652088866746492)</t>
+          <t>ReturnTuple(sdnn=22.11441871244685)</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=20.652088866746492)</t>
+          <t>ReturnTuple(sdnn=22.11441871244685)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>1494</t>
+          <t>1435</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>7.1</v>
+        <v>7.16</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.537582133032934)</t>
+          <t>ReturnTuple(sdnn=14.373985283586114)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.537582133032934)</t>
+          <t>ReturnTuple(sdnn=14.373985283586114)</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.537582133032934)</t>
+          <t>ReturnTuple(sdnn=14.373985283586114)</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=19.537582133032934)</t>
+          <t>ReturnTuple(sdnn=14.373985283586114)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1436</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>7.28</v>
+        <v>7.38</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.696454416794204)</t>
+          <t>ReturnTuple(sdnn=11.149575702991454)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.696454416794204)</t>
+          <t>ReturnTuple(sdnn=11.149575702991454)</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.696454416794204)</t>
+          <t>ReturnTuple(sdnn=11.149575702991454)</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=16.696454416794204)</t>
+          <t>ReturnTuple(sdnn=11.149575702991454)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>7.4</v>
+        <v>7.17</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.725807721435299)</t>
+          <t>ReturnTuple(sdnn=15.281681103560755)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.725807721435299)</t>
+          <t>ReturnTuple(sdnn=15.281681103560755)</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.725807721435299)</t>
+          <t>ReturnTuple(sdnn=15.281681103560755)</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=15.725807721435299)</t>
+          <t>ReturnTuple(sdnn=15.281681103560755)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1438</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>7.24</v>
+        <v>7.14</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.335435819128826)</t>
+          <t>ReturnTuple(sdnn=20.206233129685916)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.335435819128826)</t>
+          <t>ReturnTuple(sdnn=20.206233129685916)</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.335435819128826)</t>
+          <t>ReturnTuple(sdnn=20.206233129685916)</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=18.335435819128826)</t>
+          <t>ReturnTuple(sdnn=20.206233129685916)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>1502</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>7.26</v>
+        <v>7.3</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.88504217649927)</t>
+          <t>ReturnTuple(sdnn=7.885287024173818)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.88504217649927)</t>
+          <t>ReturnTuple(sdnn=7.885287024173818)</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.88504217649927)</t>
+          <t>ReturnTuple(sdnn=7.885287024173818)</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=22.88504217649927)</t>
+          <t>ReturnTuple(sdnn=7.885287024173818)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1441</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>7.31</v>
+        <v>7.23</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.58377822376317)</t>
+          <t>ReturnTuple(sdnn=16.47815535543286)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.58377822376317)</t>
+          <t>ReturnTuple(sdnn=16.47815535543286)</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.58377822376317)</t>
+          <t>ReturnTuple(sdnn=16.47815535543286)</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>ReturnTuple(sdnn=9.58377822376317)</t>
+          <t>ReturnTuple(sdnn=16.47815535543286)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
+          <t>1442</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.042608247437675)</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.042608247437675)</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.042608247437675)</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.042608247437675)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>1445</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.485722895757528)</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.485722895757528)</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.485722895757528)</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.485722895757528)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>1446</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.127231103189658)</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.127231103189658)</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.127231103189658)</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.127231103189658)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>1453</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.3633358539698)</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.3633358539698)</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.3633358539698)</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.3633358539698)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>1454</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.101034851663348)</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.101034851663348)</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.101034851663348)</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.101034851663348)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>1455</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.13825701082128)</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.13825701082128)</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.13825701082128)</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.13825701082128)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>1457</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.296204344465679)</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.296204344465679)</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.296204344465679)</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.296204344465679)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.443444338797068)</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.443444338797068)</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.443444338797068)</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.443444338797068)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.976457630720372)</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.976457630720372)</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.976457630720372)</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.976457630720372)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>1462</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.52068144996173)</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.52068144996173)</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.52068144996173)</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=13.52068144996173)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>1463</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.632442132207984)</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.632442132207984)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.632442132207984)</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.632442132207984)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>1464</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.077798667589887)</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.077798667589887)</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.077798667589887)</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.077798667589887)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>1465</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.97803033854297)</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.97803033854297)</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.97803033854297)</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.97803033854297)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.807384694020918)</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.807384694020918)</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.807384694020918)</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.807384694020918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>1468</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.376615880295349)</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.376615880295349)</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.376615880295349)</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=6.376615880295349)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>1470</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.558253448517979)</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.558253448517979)</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.558253448517979)</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=12.558253448517979)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>1471</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.978592374735872)</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.978592374735872)</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.978592374735872)</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.978592374735872)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>1473</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.8980615637685)</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.8980615637685)</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.8980615637685)</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.8980615637685)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>1476</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=7.174789846620115)</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=7.174789846620115)</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=7.174789846620115)</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=7.174789846620115)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.786769997312494)</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.786769997312494)</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.786769997312494)</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=11.786769997312494)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>1480</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.79335255314317)</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.79335255314317)</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.79335255314317)</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.79335255314317)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>1483</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.530715373269844)</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.530715373269844)</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.530715373269844)</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=10.530715373269844)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>1485</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=25.151178655398965)</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=25.151178655398965)</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=25.151178655398965)</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=25.151178655398965)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>1486</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=20.58679976257433)</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=20.58679976257433)</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=20.58679976257433)</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=20.58679976257433)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>1488</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.564058703155872)</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.564058703155872)</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.564058703155872)</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.564058703155872)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>1491</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=8.853386023904534)</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=8.853386023904534)</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=8.853386023904534)</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=8.853386023904534)</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>1493</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.560226092709907)</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.560226092709907)</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.560226092709907)</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=19.560226092709907)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>1494</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.771689334816738)</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.771689334816738)</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.771689334816738)</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=17.771689334816738)</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>1497</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.9361704635699)</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.9361704635699)</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.9361704635699)</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.9361704635699)</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.43222751055108)</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.43222751055108)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.43222751055108)</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=14.43222751055108)</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.75389038376081)</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.75389038376081)</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.75389038376081)</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=16.75389038376081)</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>1502</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.30023677662083)</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.30023677662083)</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.30023677662083)</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=24.30023677662083)</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>1503</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.776888446294613)</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.776888446294613)</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.776888446294613)</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=9.776888446294613)</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
           <t>1505</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B241" t="n">
         <v>7.24</v>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.04893849338404)</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.04893849338404)</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.04893849338404)</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>ReturnTuple(sdnn=19.04893849338404)</t>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.034866123181036)</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.034866123181036)</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.034866123181036)</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ReturnTuple(sdnn=15.034866123181036)</t>
         </is>
       </c>
     </row>
